--- a/data/yahoofinance/TLT_EDV_ZROZ_yahoofin_historical_data.xlsx
+++ b/data/yahoofinance/TLT_EDV_ZROZ_yahoofin_historical_data.xlsx
@@ -444,7 +444,7 @@
         <v>98.30999755859375</v>
       </c>
       <c r="F2">
-        <v>95.75685882568359</v>
+        <v>95.44841766357422</v>
       </c>
       <c r="G2">
         <v>47797400</v>
@@ -467,7 +467,7 @@
         <v>98.72000122070312</v>
       </c>
       <c r="F3">
-        <v>96.15621948242188</v>
+        <v>95.84647369384766</v>
       </c>
       <c r="G3">
         <v>58159500</v>
@@ -490,7 +490,7 @@
         <v>97.22000122070312</v>
       </c>
       <c r="F4">
-        <v>94.69516754150391</v>
+        <v>94.39014434814453</v>
       </c>
       <c r="G4">
         <v>52604500</v>
@@ -513,7 +513,7 @@
         <v>96.29000091552734</v>
       </c>
       <c r="F5">
-        <v>93.78932189941406</v>
+        <v>93.48720550537109</v>
       </c>
       <c r="G5">
         <v>45883000</v>
@@ -536,7 +536,7 @@
         <v>97.23999786376953</v>
       </c>
       <c r="F6">
-        <v>94.71464538574219</v>
+        <v>94.40955352783203</v>
       </c>
       <c r="G6">
         <v>39485800</v>
@@ -559,7 +559,7 @@
         <v>96.62000274658203</v>
       </c>
       <c r="F7">
-        <v>94.11075592041016</v>
+        <v>93.80760955810547</v>
       </c>
       <c r="G7">
         <v>34374000</v>
@@ -582,7 +582,7 @@
         <v>96.16999816894531</v>
       </c>
       <c r="F8">
-        <v>93.67241668701172</v>
+        <v>93.37069702148438</v>
       </c>
       <c r="G8">
         <v>48227800</v>
@@ -605,7 +605,7 @@
         <v>96.70999908447266</v>
       </c>
       <c r="F9">
-        <v>94.19841003417969</v>
+        <v>93.89498138427734</v>
       </c>
       <c r="G9">
         <v>78858900</v>
@@ -628,7 +628,7 @@
         <v>96.51999664306641</v>
       </c>
       <c r="F10">
-        <v>94.01334381103516</v>
+        <v>93.71050262451172</v>
       </c>
       <c r="G10">
         <v>38867100</v>
@@ -651,7 +651,7 @@
         <v>94.81999969482422</v>
       </c>
       <c r="F11">
-        <v>92.35748291015625</v>
+        <v>92.05998992919922</v>
       </c>
       <c r="G11">
         <v>61716700</v>
@@ -674,7 +674,7 @@
         <v>94.66999816894531</v>
       </c>
       <c r="F12">
-        <v>92.21139526367188</v>
+        <v>91.91436004638672</v>
       </c>
       <c r="G12">
         <v>55506800</v>
@@ -697,7 +697,7 @@
         <v>93.79000091552734</v>
       </c>
       <c r="F13">
-        <v>91.354248046875</v>
+        <v>91.05998229980469</v>
       </c>
       <c r="G13">
         <v>77339100</v>
@@ -720,7 +720,7 @@
         <v>94.08999633789062</v>
       </c>
       <c r="F14">
-        <v>91.64645385742188</v>
+        <v>91.35124969482422</v>
       </c>
       <c r="G14">
         <v>47020300</v>
@@ -743,7 +743,7 @@
         <v>94.65000152587891</v>
       </c>
       <c r="F15">
-        <v>92.19190979003906</v>
+        <v>91.89492797851562</v>
       </c>
       <c r="G15">
         <v>35756400</v>
@@ -766,7 +766,7 @@
         <v>93.90000152587891</v>
       </c>
       <c r="F16">
-        <v>91.46138000488281</v>
+        <v>91.16678619384766</v>
       </c>
       <c r="G16">
         <v>35786700</v>
@@ -789,7 +789,7 @@
         <v>93.34999847412109</v>
       </c>
       <c r="F17">
-        <v>90.92566680908203</v>
+        <v>90.63276672363281</v>
       </c>
       <c r="G17">
         <v>54574900</v>
@@ -812,7 +812,7 @@
         <v>93.95999908447266</v>
       </c>
       <c r="F18">
-        <v>91.51983642578125</v>
+        <v>91.22501373291016</v>
       </c>
       <c r="G18">
         <v>57019400</v>
@@ -835,7 +835,7 @@
         <v>93.77999877929688</v>
       </c>
       <c r="F19">
-        <v>91.34449768066406</v>
+        <v>91.05026245117188</v>
       </c>
       <c r="G19">
         <v>29276900</v>
@@ -858,7 +858,7 @@
         <v>94.86000061035156</v>
       </c>
       <c r="F20">
-        <v>92.39646148681641</v>
+        <v>92.09883117675781</v>
       </c>
       <c r="G20">
         <v>38243600</v>
@@ -881,7 +881,7 @@
         <v>95.72000122070312</v>
       </c>
       <c r="F21">
-        <v>93.23411560058594</v>
+        <v>92.93379211425781</v>
       </c>
       <c r="G21">
         <v>40151400</v>
@@ -904,7 +904,7 @@
         <v>96.66000366210938</v>
       </c>
       <c r="F22">
-        <v>94.14971160888672</v>
+        <v>93.84642791748047</v>
       </c>
       <c r="G22">
         <v>80646700</v>
@@ -927,7 +927,7 @@
         <v>98.23999786376953</v>
       </c>
       <c r="F23">
-        <v>95.99655151367188</v>
+        <v>95.68732452392578</v>
       </c>
       <c r="G23">
         <v>84291200</v>
@@ -950,7 +950,7 @@
         <v>96.06999969482422</v>
       </c>
       <c r="F24">
-        <v>93.87612152099609</v>
+        <v>93.57370758056641</v>
       </c>
       <c r="G24">
         <v>63803000</v>
@@ -973,7 +973,7 @@
         <v>94.12999725341797</v>
       </c>
       <c r="F25">
-        <v>91.98041534423828</v>
+        <v>91.68412017822266</v>
       </c>
       <c r="G25">
         <v>53827400</v>
@@ -996,7 +996,7 @@
         <v>95.05000305175781</v>
       </c>
       <c r="F26">
-        <v>92.87940216064453</v>
+        <v>92.58020782470703</v>
       </c>
       <c r="G26">
         <v>33411500</v>
@@ -1019,7 +1019,7 @@
         <v>94.58999633789062</v>
       </c>
       <c r="F27">
-        <v>92.42990112304688</v>
+        <v>92.13216400146484</v>
       </c>
       <c r="G27">
         <v>40120200</v>
@@ -1042,7 +1042,7 @@
         <v>94.04000091552734</v>
       </c>
       <c r="F28">
-        <v>91.89247131347656</v>
+        <v>91.59645843505859</v>
       </c>
       <c r="G28">
         <v>50087700</v>
@@ -1065,7 +1065,7 @@
         <v>93.84999847412109</v>
       </c>
       <c r="F29">
-        <v>91.70680236816406</v>
+        <v>91.41139984130859</v>
       </c>
       <c r="G29">
         <v>27951300</v>
@@ -1088,7 +1088,7 @@
         <v>93.95999908447266</v>
       </c>
       <c r="F30">
-        <v>91.81430053710938</v>
+        <v>91.51853942871094</v>
       </c>
       <c r="G30">
         <v>27890300</v>
@@ -1111,7 +1111,7 @@
         <v>92.34999847412109</v>
       </c>
       <c r="F31">
-        <v>90.24105834960938</v>
+        <v>89.95037078857422</v>
       </c>
       <c r="G31">
         <v>49768500</v>
@@ -1134,7 +1134,7 @@
         <v>92.81999969482422</v>
       </c>
       <c r="F32">
-        <v>90.70032501220703</v>
+        <v>90.40815734863281</v>
       </c>
       <c r="G32">
         <v>44191600</v>
@@ -1157,7 +1157,7 @@
         <v>93.30000305175781</v>
       </c>
       <c r="F33">
-        <v>91.16937255859375</v>
+        <v>90.87568664550781</v>
       </c>
       <c r="G33">
         <v>49598500</v>
@@ -1180,7 +1180,7 @@
         <v>92.76000213623047</v>
       </c>
       <c r="F34">
-        <v>90.64168548583984</v>
+        <v>90.34972381591797</v>
       </c>
       <c r="G34">
         <v>33100500</v>
@@ -1203,7 +1203,7 @@
         <v>92.83999633789062</v>
       </c>
       <c r="F35">
-        <v>90.71985626220703</v>
+        <v>90.42764282226562</v>
       </c>
       <c r="G35">
         <v>24469300</v>
@@ -1226,7 +1226,7 @@
         <v>92.18000030517578</v>
       </c>
       <c r="F36">
-        <v>90.07493591308594</v>
+        <v>89.78478240966797</v>
       </c>
       <c r="G36">
         <v>36404200</v>
@@ -1249,7 +1249,7 @@
         <v>92.62999725341797</v>
       </c>
       <c r="F37">
-        <v>90.51467132568359</v>
+        <v>90.22309875488281</v>
       </c>
       <c r="G37">
         <v>45190700</v>
@@ -1272,7 +1272,7 @@
         <v>93.87000274658203</v>
       </c>
       <c r="F38">
-        <v>91.72635650634766</v>
+        <v>91.43087768554688</v>
       </c>
       <c r="G38">
         <v>38406700</v>
@@ -1295,7 +1295,7 @@
         <v>93.58999633789062</v>
       </c>
       <c r="F39">
-        <v>91.45274353027344</v>
+        <v>91.15814208984375</v>
       </c>
       <c r="G39">
         <v>27855000</v>
@@ -1318,7 +1318,7 @@
         <v>92.93000030517578</v>
       </c>
       <c r="F40">
-        <v>90.80780792236328</v>
+        <v>90.51529693603516</v>
       </c>
       <c r="G40">
         <v>30242000</v>
@@ -1341,7 +1341,7 @@
         <v>93.51999664306641</v>
       </c>
       <c r="F41">
-        <v>91.38433074951172</v>
+        <v>91.08997344970703</v>
       </c>
       <c r="G41">
         <v>34574200</v>
@@ -1364,7 +1364,7 @@
         <v>94.18000030517578</v>
       </c>
       <c r="F42">
-        <v>92.02927398681641</v>
+        <v>91.73282623291016</v>
       </c>
       <c r="G42">
         <v>51038600</v>
@@ -1387,7 +1387,7 @@
         <v>94.47000122070312</v>
       </c>
       <c r="F43">
-        <v>92.60270690917969</v>
+        <v>92.30441284179688</v>
       </c>
       <c r="G43">
         <v>45822800</v>
@@ -1410,7 +1410,7 @@
         <v>94.08999633789062</v>
       </c>
       <c r="F44">
-        <v>92.23021697998047</v>
+        <v>91.93311309814453</v>
       </c>
       <c r="G44">
         <v>23864200</v>
@@ -1433,7 +1433,7 @@
         <v>95.43000030517578</v>
       </c>
       <c r="F45">
-        <v>93.54373168945312</v>
+        <v>93.24240112304688</v>
       </c>
       <c r="G45">
         <v>37721900</v>
@@ -1456,7 +1456,7 @@
         <v>95.98999786376953</v>
       </c>
       <c r="F46">
-        <v>94.09266662597656</v>
+        <v>93.78957366943359</v>
       </c>
       <c r="G46">
         <v>40571600</v>
@@ -1479,7 +1479,7 @@
         <v>95.90000152587891</v>
       </c>
       <c r="F47">
-        <v>94.00444793701172</v>
+        <v>93.70162963867188</v>
       </c>
       <c r="G47">
         <v>39075000</v>
@@ -1502,7 +1502,7 @@
         <v>95.73000335693359</v>
       </c>
       <c r="F48">
-        <v>93.83779907226562</v>
+        <v>93.53553009033203</v>
       </c>
       <c r="G48">
         <v>25014500</v>
@@ -1525,7 +1525,7 @@
         <v>95.68000030517578</v>
       </c>
       <c r="F49">
-        <v>93.78878784179688</v>
+        <v>93.48667144775391</v>
       </c>
       <c r="G49">
         <v>17787900</v>
@@ -1548,7 +1548,7 @@
         <v>94.87999725341797</v>
       </c>
       <c r="F50">
-        <v>93.00460052490234</v>
+        <v>92.70500946044922</v>
       </c>
       <c r="G50">
         <v>29566000</v>
@@ -1571,7 +1571,7 @@
         <v>94.41999816894531</v>
       </c>
       <c r="F51">
-        <v>92.55368041992188</v>
+        <v>92.25556945800781</v>
       </c>
       <c r="G51">
         <v>38270100</v>
@@ -1594,7 +1594,7 @@
         <v>92.97000122070312</v>
       </c>
       <c r="F52">
-        <v>91.13235473632812</v>
+        <v>90.83879089355469</v>
       </c>
       <c r="G52">
         <v>58365600</v>
@@ -1617,7 +1617,7 @@
         <v>92.94000244140625</v>
       </c>
       <c r="F53">
-        <v>91.10294342041016</v>
+        <v>90.80950164794922</v>
       </c>
       <c r="G53">
         <v>34992700</v>
@@ -1640,7 +1640,7 @@
         <v>92.66000366210938</v>
       </c>
       <c r="F54">
-        <v>90.8284912109375</v>
+        <v>90.53590393066406</v>
       </c>
       <c r="G54">
         <v>29519500</v>
@@ -1663,7 +1663,7 @@
         <v>92.91999816894531</v>
       </c>
       <c r="F55">
-        <v>91.08335113525391</v>
+        <v>90.78993988037109</v>
       </c>
       <c r="G55">
         <v>26953100</v>
@@ -1686,7 +1686,7 @@
         <v>92.88999938964844</v>
       </c>
       <c r="F56">
-        <v>91.05393218994141</v>
+        <v>90.76063537597656</v>
       </c>
       <c r="G56">
         <v>43460100</v>
@@ -1709,7 +1709,7 @@
         <v>93.08999633789062</v>
       </c>
       <c r="F57">
-        <v>91.24997711181641</v>
+        <v>90.95603179931641</v>
       </c>
       <c r="G57">
         <v>34276600</v>
@@ -1732,7 +1732,7 @@
         <v>93.98000335693359</v>
       </c>
       <c r="F58">
-        <v>92.12238311767578</v>
+        <v>91.82564544677734</v>
       </c>
       <c r="G58">
         <v>30258200</v>
@@ -1755,7 +1755,7 @@
         <v>93.51000213623047</v>
       </c>
       <c r="F59">
-        <v>91.66168212890625</v>
+        <v>91.36641693115234</v>
       </c>
       <c r="G59">
         <v>24011800</v>
@@ -1778,7 +1778,7 @@
         <v>93.76999664306641</v>
       </c>
       <c r="F60">
-        <v>91.91653442382812</v>
+        <v>91.62045288085938</v>
       </c>
       <c r="G60">
         <v>34423000</v>
@@ -1801,7 +1801,7 @@
         <v>94.69999694824219</v>
       </c>
       <c r="F61">
-        <v>92.82814025878906</v>
+        <v>92.52913665771484</v>
       </c>
       <c r="G61">
         <v>50157800</v>
@@ -1824,7 +1824,7 @@
         <v>94.62000274658203</v>
       </c>
       <c r="F62">
-        <v>92.74973297119141</v>
+        <v>92.45096588134766</v>
       </c>
       <c r="G62">
         <v>34540400</v>
@@ -1847,7 +1847,7 @@
         <v>92.55000305175781</v>
       </c>
       <c r="F63">
-        <v>91.02079010009766</v>
+        <v>90.72759246826172</v>
       </c>
       <c r="G63">
         <v>48945400</v>
@@ -1870,7 +1870,7 @@
         <v>92.04000091552734</v>
       </c>
       <c r="F64">
-        <v>90.51921844482422</v>
+        <v>90.22763061523438</v>
       </c>
       <c r="G64">
         <v>43086300</v>
@@ -1893,7 +1893,7 @@
         <v>92.01999664306641</v>
       </c>
       <c r="F65">
-        <v>90.49953460693359</v>
+        <v>90.20801544189453</v>
       </c>
       <c r="G65">
         <v>45494400</v>
@@ -1916,7 +1916,7 @@
         <v>92.68000030517578</v>
       </c>
       <c r="F66">
-        <v>91.14863586425781</v>
+        <v>90.85501861572266</v>
       </c>
       <c r="G66">
         <v>47957400</v>
@@ -1939,7 +1939,7 @@
         <v>91.38999938964844</v>
       </c>
       <c r="F67">
-        <v>89.87995147705078</v>
+        <v>89.59042358398438</v>
       </c>
       <c r="G67">
         <v>42466800</v>
@@ -1962,7 +1962,7 @@
         <v>91.37999725341797</v>
       </c>
       <c r="F68">
-        <v>89.87010955810547</v>
+        <v>89.58061981201172</v>
       </c>
       <c r="G68">
         <v>37879800</v>
@@ -1985,7 +1985,7 @@
         <v>92.23000335693359</v>
       </c>
       <c r="F69">
-        <v>90.70606994628906</v>
+        <v>90.41388702392578</v>
       </c>
       <c r="G69">
         <v>32537000</v>
@@ -2008,7 +2008,7 @@
         <v>90.22000122070312</v>
       </c>
       <c r="F70">
-        <v>88.72927856445312</v>
+        <v>88.44346618652344</v>
       </c>
       <c r="G70">
         <v>74368900</v>
@@ -2031,7 +2031,7 @@
         <v>89.80999755859375</v>
       </c>
       <c r="F71">
-        <v>88.32605743408203</v>
+        <v>88.04152679443359</v>
       </c>
       <c r="G71">
         <v>65751200</v>
@@ -2054,7 +2054,7 @@
         <v>90.29000091552734</v>
       </c>
       <c r="F72">
-        <v>88.79812622070312</v>
+        <v>88.51209259033203</v>
       </c>
       <c r="G72">
         <v>47869400</v>
@@ -2077,7 +2077,7 @@
         <v>88.88999938964844</v>
       </c>
       <c r="F73">
-        <v>87.42125701904297</v>
+        <v>87.13965606689453</v>
       </c>
       <c r="G73">
         <v>55993100</v>
@@ -2100,7 +2100,7 @@
         <v>88.30000305175781</v>
       </c>
       <c r="F74">
-        <v>86.84100341796875</v>
+        <v>86.561279296875</v>
       </c>
       <c r="G74">
         <v>45103200</v>
@@ -2123,7 +2123,7 @@
         <v>89.27999877929688</v>
       </c>
       <c r="F75">
-        <v>87.8048095703125</v>
+        <v>87.52197265625</v>
       </c>
       <c r="G75">
         <v>57947000</v>
@@ -2146,7 +2146,7 @@
         <v>88.83000183105469</v>
       </c>
       <c r="F76">
-        <v>87.36225891113281</v>
+        <v>87.08083343505859</v>
       </c>
       <c r="G76">
         <v>43839500</v>
@@ -2169,7 +2169,7 @@
         <v>89.15000152587891</v>
       </c>
       <c r="F77">
-        <v>87.67697143554688</v>
+        <v>87.39453887939453</v>
       </c>
       <c r="G77">
         <v>44808000</v>
@@ -2192,7 +2192,7 @@
         <v>89</v>
       </c>
       <c r="F78">
-        <v>87.52944946289062</v>
+        <v>87.24748992919922</v>
       </c>
       <c r="G78">
         <v>24969000</v>
@@ -2215,7 +2215,7 @@
         <v>89.02999877929688</v>
       </c>
       <c r="F79">
-        <v>87.55894470214844</v>
+        <v>87.27689361572266</v>
       </c>
       <c r="G79">
         <v>27222700</v>
@@ -2238,7 +2238,7 @@
         <v>88.40000152587891</v>
       </c>
       <c r="F80">
-        <v>86.93936157226562</v>
+        <v>86.65931701660156</v>
       </c>
       <c r="G80">
         <v>48986800</v>
@@ -2261,7 +2261,7 @@
         <v>87.77999877929688</v>
       </c>
       <c r="F81">
-        <v>86.32959747314453</v>
+        <v>86.05150604248047</v>
       </c>
       <c r="G81">
         <v>49282600</v>
@@ -2284,7 +2284,7 @@
         <v>88.23999786376953</v>
       </c>
       <c r="F82">
-        <v>86.78199768066406</v>
+        <v>86.50245666503906</v>
       </c>
       <c r="G82">
         <v>31589800</v>
@@ -2307,7 +2307,7 @@
         <v>88.98000335693359</v>
       </c>
       <c r="F83">
-        <v>87.50977325439453</v>
+        <v>87.22789001464844</v>
       </c>
       <c r="G83">
         <v>39228600</v>
@@ -2330,7 +2330,7 @@
         <v>88.22000122070312</v>
       </c>
       <c r="F84">
-        <v>86.76232147216797</v>
+        <v>86.48285675048828</v>
       </c>
       <c r="G84">
         <v>41054700</v>
@@ -2353,7 +2353,7 @@
         <v>88.55999755859375</v>
       </c>
       <c r="F85">
-        <v>87.40185546875</v>
+        <v>87.12030792236328</v>
       </c>
       <c r="G85">
         <v>59679500</v>
@@ -2376,7 +2376,7 @@
         <v>88.94000244140625</v>
       </c>
       <c r="F86">
-        <v>87.77689361572266</v>
+        <v>87.494140625</v>
       </c>
       <c r="G86">
         <v>58925400</v>
@@ -2399,7 +2399,7 @@
         <v>89.83999633789062</v>
       </c>
       <c r="F87">
-        <v>88.66511535644531</v>
+        <v>88.3795166015625</v>
       </c>
       <c r="G87">
         <v>50066100</v>
@@ -2422,7 +2422,7 @@
         <v>90.19000244140625</v>
       </c>
       <c r="F88">
-        <v>89.01053619384766</v>
+        <v>88.72382354736328</v>
       </c>
       <c r="G88">
         <v>23868200</v>
@@ -2445,7 +2445,7 @@
         <v>90.73999786376953</v>
       </c>
       <c r="F89">
-        <v>89.5533447265625</v>
+        <v>89.26487731933594</v>
       </c>
       <c r="G89">
         <v>30525800</v>
@@ -2468,7 +2468,7 @@
         <v>90.19000244140625</v>
       </c>
       <c r="F90">
-        <v>89.01053619384766</v>
+        <v>88.72382354736328</v>
       </c>
       <c r="G90">
         <v>31171700</v>
@@ -2491,7 +2491,7 @@
         <v>90.62999725341797</v>
       </c>
       <c r="F91">
-        <v>89.44478607177734</v>
+        <v>89.15666961669922</v>
       </c>
       <c r="G91">
         <v>39606700</v>
@@ -2514,7 +2514,7 @@
         <v>90.12000274658203</v>
       </c>
       <c r="F92">
-        <v>88.94145965576172</v>
+        <v>88.65496063232422</v>
       </c>
       <c r="G92">
         <v>21913800</v>
@@ -2537,7 +2537,7 @@
         <v>90.34999847412109</v>
       </c>
       <c r="F93">
-        <v>89.16845703125</v>
+        <v>88.88121032714844</v>
       </c>
       <c r="G93">
         <v>23157500</v>
@@ -2560,7 +2560,7 @@
         <v>90.86000061035156</v>
       </c>
       <c r="F94">
-        <v>89.67178344726562</v>
+        <v>89.38292694091797</v>
       </c>
       <c r="G94">
         <v>25746400</v>
@@ -2583,7 +2583,7 @@
         <v>92.09999847412109</v>
       </c>
       <c r="F95">
-        <v>90.89556121826172</v>
+        <v>90.60276794433594</v>
       </c>
       <c r="G95">
         <v>65142900</v>
@@ -2606,7 +2606,7 @@
         <v>92.01000213623047</v>
       </c>
       <c r="F96">
-        <v>90.80673980712891</v>
+        <v>90.51423645019531</v>
       </c>
       <c r="G96">
         <v>37902400</v>
@@ -2629,7 +2629,7 @@
         <v>91.38999938964844</v>
       </c>
       <c r="F97">
-        <v>90.19484710693359</v>
+        <v>89.90431213378906</v>
       </c>
       <c r="G97">
         <v>24755000</v>
@@ -2652,7 +2652,7 @@
         <v>91.12000274658203</v>
       </c>
       <c r="F98">
-        <v>89.92837524414062</v>
+        <v>89.63870239257812</v>
       </c>
       <c r="G98">
         <v>17922800</v>
@@ -2675,7 +2675,7 @@
         <v>91.58999633789062</v>
       </c>
       <c r="F99">
-        <v>90.39223480224609</v>
+        <v>90.10105895996094</v>
       </c>
       <c r="G99">
         <v>15334400</v>
@@ -2698,7 +2698,7 @@
         <v>91.69999694824219</v>
       </c>
       <c r="F100">
-        <v>90.50079345703125</v>
+        <v>90.20926666259766</v>
       </c>
       <c r="G100">
         <v>38073700</v>
@@ -2721,7 +2721,7 @@
         <v>91.11000061035156</v>
       </c>
       <c r="F101">
-        <v>89.91851806640625</v>
+        <v>89.62886810302734</v>
       </c>
       <c r="G101">
         <v>51294700</v>
@@ -2744,7 +2744,7 @@
         <v>91.37999725341797</v>
       </c>
       <c r="F102">
-        <v>90.18496704101562</v>
+        <v>89.89446258544922</v>
       </c>
       <c r="G102">
         <v>19151400</v>
@@ -2767,7 +2767,7 @@
         <v>90.06999969482422</v>
       </c>
       <c r="F103">
-        <v>88.89210510253906</v>
+        <v>88.60576629638672</v>
       </c>
       <c r="G103">
         <v>45973700</v>
@@ -2790,7 +2790,7 @@
         <v>88.98000335693359</v>
       </c>
       <c r="F104">
-        <v>87.81636047363281</v>
+        <v>87.53349304199219</v>
       </c>
       <c r="G104">
         <v>45508400</v>
@@ -2813,7 +2813,7 @@
         <v>89.83999633789062</v>
       </c>
       <c r="F105">
-        <v>88.66511535644531</v>
+        <v>88.3795166015625</v>
       </c>
       <c r="G105">
         <v>29571700</v>
@@ -2836,7 +2836,7 @@
         <v>90.44999694824219</v>
       </c>
       <c r="F106">
-        <v>89.26712799072266</v>
+        <v>88.97958374023438</v>
       </c>
       <c r="G106">
         <v>41308800</v>
@@ -2859,7 +2859,7 @@
         <v>91.59999847412109</v>
       </c>
       <c r="F107">
-        <v>90.71099090576172</v>
+        <v>90.41878509521484</v>
       </c>
       <c r="G107">
         <v>42272100</v>
@@ -2882,7 +2882,7 @@
         <v>92.66999816894531</v>
       </c>
       <c r="F108">
-        <v>91.77060699462891</v>
+        <v>91.47499084472656</v>
       </c>
       <c r="G108">
         <v>42581500</v>
@@ -2905,7 +2905,7 @@
         <v>93.34999847412109</v>
       </c>
       <c r="F109">
-        <v>92.44400024414062</v>
+        <v>92.14622497558594</v>
       </c>
       <c r="G109">
         <v>43153900</v>
@@ -2928,7 +2928,7 @@
         <v>93.20999908447266</v>
       </c>
       <c r="F110">
-        <v>92.30536651611328</v>
+        <v>92.00803375244141</v>
       </c>
       <c r="G110">
         <v>22891900</v>
@@ -2951,7 +2951,7 @@
         <v>91.5</v>
       </c>
       <c r="F111">
-        <v>90.61196136474609</v>
+        <v>90.32008361816406</v>
       </c>
       <c r="G111">
         <v>35240500</v>
@@ -2974,7 +2974,7 @@
         <v>90.88999938964844</v>
       </c>
       <c r="F112">
-        <v>90.00788879394531</v>
+        <v>89.71794891357422</v>
       </c>
       <c r="G112">
         <v>20593200</v>
@@ -2997,7 +2997,7 @@
         <v>91.83000183105469</v>
       </c>
       <c r="F113">
-        <v>90.93875885009766</v>
+        <v>90.64582824707031</v>
       </c>
       <c r="G113">
         <v>30329200</v>
@@ -3020,7 +3020,7 @@
         <v>92.51999664306641</v>
       </c>
       <c r="F114">
-        <v>91.62206268310547</v>
+        <v>91.32691955566406</v>
       </c>
       <c r="G114">
         <v>42554600</v>
@@ -3043,7 +3043,7 @@
         <v>93.87999725341797</v>
       </c>
       <c r="F115">
-        <v>92.96885681152344</v>
+        <v>92.66938781738281</v>
       </c>
       <c r="G115">
         <v>33093800</v>
@@ -3066,7 +3066,7 @@
         <v>94.66999816894531</v>
       </c>
       <c r="F116">
-        <v>93.75119018554688</v>
+        <v>93.44919586181641</v>
       </c>
       <c r="G116">
         <v>28776700</v>
@@ -3089,7 +3089,7 @@
         <v>93.73000335693359</v>
       </c>
       <c r="F117">
-        <v>92.82032012939453</v>
+        <v>92.52132415771484</v>
       </c>
       <c r="G117">
         <v>31040200</v>
@@ -3112,7 +3112,7 @@
         <v>94.58999633789062</v>
       </c>
       <c r="F118">
-        <v>93.67196655273438</v>
+        <v>93.37023162841797</v>
       </c>
       <c r="G118">
         <v>26881000</v>
@@ -3135,7 +3135,7 @@
         <v>93.95999908447266</v>
       </c>
       <c r="F119">
-        <v>93.04808807373047</v>
+        <v>92.74835205078125</v>
       </c>
       <c r="G119">
         <v>30246300</v>
@@ -3158,7 +3158,7 @@
         <v>93.95999908447266</v>
       </c>
       <c r="F120">
-        <v>93.04808807373047</v>
+        <v>92.74835205078125</v>
       </c>
       <c r="G120">
         <v>22830900</v>
@@ -3181,7 +3181,7 @@
         <v>94.33999633789062</v>
       </c>
       <c r="F121">
-        <v>93.42439270019531</v>
+        <v>93.12345886230469</v>
       </c>
       <c r="G121">
         <v>56939100</v>
@@ -3204,7 +3204,7 @@
         <v>94.5</v>
       </c>
       <c r="F122">
-        <v>93.58283996582031</v>
+        <v>93.28139495849609</v>
       </c>
       <c r="G122">
         <v>23160000</v>
@@ -3227,7 +3227,7 @@
         <v>93.15000152587891</v>
       </c>
       <c r="F123">
-        <v>92.24594879150391</v>
+        <v>91.94880676269531</v>
       </c>
       <c r="G123">
         <v>38489100</v>
@@ -3250,7 +3250,7 @@
         <v>93.51999664306641</v>
       </c>
       <c r="F124">
-        <v>92.61235046386719</v>
+        <v>92.31402587890625</v>
       </c>
       <c r="G124">
         <v>23140800</v>
@@ -3273,7 +3273,7 @@
         <v>91.77999877929688</v>
       </c>
       <c r="F125">
-        <v>90.88924407958984</v>
+        <v>90.59646606445312</v>
       </c>
       <c r="G125">
         <v>55119600</v>
@@ -3296,7 +3296,7 @@
         <v>89.91000366210938</v>
       </c>
       <c r="F126">
-        <v>89.32059478759766</v>
+        <v>89.03287506103516</v>
       </c>
       <c r="G126">
         <v>49735400</v>
@@ -3319,7 +3319,7 @@
         <v>90.61000061035156</v>
       </c>
       <c r="F127">
-        <v>90.01599884033203</v>
+        <v>89.72604370117188</v>
       </c>
       <c r="G127">
         <v>34204700</v>
@@ -3342,7 +3342,7 @@
         <v>91.80000305175781</v>
       </c>
       <c r="F128">
-        <v>91.19820404052734</v>
+        <v>90.90443420410156</v>
       </c>
       <c r="G128">
         <v>35563300</v>
@@ -3365,7 +3365,7 @@
         <v>92.55999755859375</v>
       </c>
       <c r="F129">
-        <v>91.95321655273438</v>
+        <v>91.65701293945312</v>
       </c>
       <c r="G129">
         <v>34895500</v>
@@ -3388,7 +3388,7 @@
         <v>92.76000213623047</v>
       </c>
       <c r="F130">
-        <v>92.15190887451172</v>
+        <v>91.85507202148438</v>
       </c>
       <c r="G130">
         <v>16095700</v>
@@ -3411,7 +3411,7 @@
         <v>92.34999847412109</v>
       </c>
       <c r="F131">
-        <v>91.74459838867188</v>
+        <v>91.44906616210938</v>
       </c>
       <c r="G131">
         <v>30289800</v>
@@ -3434,7 +3434,7 @@
         <v>92.63999938964844</v>
       </c>
       <c r="F132">
-        <v>92.03269195556641</v>
+        <v>91.73623657226562</v>
       </c>
       <c r="G132">
         <v>23572500</v>
@@ -3457,7 +3457,7 @@
         <v>93.54000091552734</v>
       </c>
       <c r="F133">
-        <v>92.92680358886719</v>
+        <v>92.62746429443359</v>
       </c>
       <c r="G133">
         <v>49761800</v>
@@ -3480,7 +3480,7 @@
         <v>93.94000244140625</v>
       </c>
       <c r="F134">
-        <v>93.32417297363281</v>
+        <v>93.02356719970703</v>
       </c>
       <c r="G134">
         <v>27796500</v>
@@ -3503,7 +3503,7 @@
         <v>92.86000061035156</v>
       </c>
       <c r="F135">
-        <v>92.25125885009766</v>
+        <v>91.95409393310547</v>
       </c>
       <c r="G135">
         <v>37918900</v>
@@ -3526,7 +3526,7 @@
         <v>94.16999816894531</v>
       </c>
       <c r="F136">
-        <v>93.55266571044922</v>
+        <v>93.25130462646484</v>
       </c>
       <c r="G136">
         <v>36383700</v>
@@ -3549,7 +3549,7 @@
         <v>94.19000244140625</v>
       </c>
       <c r="F137">
-        <v>93.57253265380859</v>
+        <v>93.27112579345703</v>
       </c>
       <c r="G137">
         <v>29036800</v>
@@ -3572,7 +3572,7 @@
         <v>93.47000122070312</v>
       </c>
       <c r="F138">
-        <v>92.85725402832031</v>
+        <v>92.55814361572266</v>
       </c>
       <c r="G138">
         <v>34553100</v>
@@ -3595,7 +3595,7 @@
         <v>92.91999816894531</v>
       </c>
       <c r="F139">
-        <v>92.31086730957031</v>
+        <v>92.01350402832031</v>
       </c>
       <c r="G139">
         <v>32164700</v>
@@ -3618,7 +3618,7 @@
         <v>92.65000152587891</v>
       </c>
       <c r="F140">
-        <v>92.04263305664062</v>
+        <v>91.74613952636719</v>
       </c>
       <c r="G140">
         <v>36160400</v>
@@ -3641,7 +3641,7 @@
         <v>92.51999664306641</v>
       </c>
       <c r="F141">
-        <v>91.91348266601562</v>
+        <v>91.61740112304688</v>
       </c>
       <c r="G141">
         <v>23498000</v>
@@ -3664,7 +3664,7 @@
         <v>91.51999664306641</v>
       </c>
       <c r="F142">
-        <v>90.92003631591797</v>
+        <v>90.62716674804688</v>
       </c>
       <c r="G142">
         <v>50757100</v>
@@ -3687,7 +3687,7 @@
         <v>92.26999664306641</v>
       </c>
       <c r="F143">
-        <v>91.66512298583984</v>
+        <v>91.36985015869141</v>
       </c>
       <c r="G143">
         <v>44999100</v>
@@ -3710,7 +3710,7 @@
         <v>92.98999786376953</v>
       </c>
       <c r="F144">
-        <v>92.38040161132812</v>
+        <v>92.08282470703125</v>
       </c>
       <c r="G144">
         <v>34423800</v>
@@ -3733,7 +3733,7 @@
         <v>93.48999786376953</v>
       </c>
       <c r="F145">
-        <v>92.87712097167969</v>
+        <v>92.57794952392578</v>
       </c>
       <c r="G145">
         <v>25801300</v>
@@ -3756,7 +3756,7 @@
         <v>93.84999847412109</v>
       </c>
       <c r="F146">
-        <v>93.23476409912109</v>
+        <v>92.93444061279297</v>
       </c>
       <c r="G146">
         <v>28169800</v>
@@ -3779,7 +3779,7 @@
         <v>94.80999755859375</v>
       </c>
       <c r="F147">
-        <v>94.18846893310547</v>
+        <v>93.88506317138672</v>
       </c>
       <c r="G147">
         <v>47445300</v>
@@ -3802,7 +3802,7 @@
         <v>95.30999755859375</v>
       </c>
       <c r="F148">
-        <v>95.00082397460938</v>
+        <v>94.69480895996094</v>
       </c>
       <c r="G148">
         <v>77254200</v>
@@ -3825,7 +3825,7 @@
         <v>98.27999877929688</v>
       </c>
       <c r="F149">
-        <v>97.96118927001953</v>
+        <v>97.64563751220703</v>
       </c>
       <c r="G149">
         <v>91912900</v>
@@ -3848,7 +3848,7 @@
         <v>98.80000305175781</v>
       </c>
       <c r="F150">
-        <v>98.47950744628906</v>
+        <v>98.16229248046875</v>
       </c>
       <c r="G150">
         <v>90686300</v>
@@ -3871,7 +3871,7 @@
         <v>96.58999633789062</v>
       </c>
       <c r="F151">
-        <v>96.27667236328125</v>
+        <v>95.96654510498047</v>
       </c>
       <c r="G151">
         <v>61316900</v>
@@ -3894,7 +3894,7 @@
         <v>95.91000366210938</v>
       </c>
       <c r="F152">
-        <v>95.59888458251953</v>
+        <v>95.29093933105469</v>
       </c>
       <c r="G152">
         <v>51337100</v>
@@ -3917,7 +3917,7 @@
         <v>95.31999969482422</v>
       </c>
       <c r="F153">
-        <v>95.01079559326172</v>
+        <v>94.70474243164062</v>
       </c>
       <c r="G153">
         <v>37815800</v>
@@ -3940,7 +3940,7 @@
         <v>96.26000213623047</v>
       </c>
       <c r="F154">
-        <v>95.94774627685547</v>
+        <v>95.63867950439453</v>
       </c>
       <c r="G154">
         <v>32141800</v>
@@ -3963,7 +3963,7 @@
         <v>96.61000061035156</v>
       </c>
       <c r="F155">
-        <v>96.29660797119141</v>
+        <v>95.98641967773438</v>
       </c>
       <c r="G155">
         <v>24261400</v>
@@ -3986,7 +3986,7 @@
         <v>97.27999877929688</v>
       </c>
       <c r="F156">
-        <v>96.96443939208984</v>
+        <v>96.65209197998047</v>
       </c>
       <c r="G156">
         <v>30366900</v>
@@ -4009,7 +4009,7 @@
         <v>97.88999938964844</v>
       </c>
       <c r="F157">
-        <v>97.57245635986328</v>
+        <v>97.25815582275391</v>
       </c>
       <c r="G157">
         <v>31334100</v>
@@ -4032,7 +4032,7 @@
         <v>97.09999847412109</v>
       </c>
       <c r="F158">
-        <v>96.78501892089844</v>
+        <v>96.47325134277344</v>
       </c>
       <c r="G158">
         <v>38723700</v>
@@ -4055,7 +4055,7 @@
         <v>97.44000244140625</v>
       </c>
       <c r="F159">
-        <v>97.12391662597656</v>
+        <v>96.81106567382812</v>
       </c>
       <c r="G159">
         <v>28541000</v>
@@ -4078,7 +4078,7 @@
         <v>97.88999938964844</v>
       </c>
       <c r="F160">
-        <v>97.57245635986328</v>
+        <v>97.25815582275391</v>
       </c>
       <c r="G160">
         <v>25322100</v>
@@ -4101,7 +4101,7 @@
         <v>98.66999816894531</v>
       </c>
       <c r="F161">
-        <v>98.34992980957031</v>
+        <v>98.03311920166016</v>
       </c>
       <c r="G161">
         <v>25239300</v>
@@ -4124,7 +4124,7 @@
         <v>98.73000335693359</v>
       </c>
       <c r="F162">
-        <v>98.40973663330078</v>
+        <v>98.09273529052734</v>
       </c>
       <c r="G162">
         <v>29230000</v>
@@ -4147,7 +4147,7 @@
         <v>97.75</v>
       </c>
       <c r="F163">
-        <v>97.43291473388672</v>
+        <v>97.11906433105469</v>
       </c>
       <c r="G163">
         <v>33453800</v>
@@ -4170,7 +4170,7 @@
         <v>98.38999938964844</v>
       </c>
       <c r="F164">
-        <v>98.07083892822266</v>
+        <v>97.75492858886719</v>
       </c>
       <c r="G164">
         <v>32005100</v>
@@ -4193,7 +4193,7 @@
         <v>98.13999938964844</v>
       </c>
       <c r="F165">
-        <v>97.82164764404297</v>
+        <v>97.50653839111328</v>
       </c>
       <c r="G165">
         <v>23198700</v>
@@ -4216,7 +4216,7 @@
         <v>97.97000122070312</v>
       </c>
       <c r="F166">
-        <v>97.65219879150391</v>
+        <v>97.33763885498047</v>
       </c>
       <c r="G166">
         <v>21507700</v>
@@ -4239,7 +4239,7 @@
         <v>97.84999847412109</v>
       </c>
       <c r="F167">
-        <v>97.53258514404297</v>
+        <v>97.21841430664062</v>
       </c>
       <c r="G167">
         <v>18501400</v>
@@ -4262,7 +4262,7 @@
         <v>97.52999877929688</v>
       </c>
       <c r="F168">
-        <v>97.213623046875</v>
+        <v>96.90048217773438</v>
       </c>
       <c r="G168">
         <v>24988200</v>
@@ -4285,7 +4285,7 @@
         <v>96.48999786376953</v>
       </c>
       <c r="F169">
-        <v>96.17699432373047</v>
+        <v>95.86719512939453</v>
       </c>
       <c r="G169">
         <v>42896200</v>
@@ -4344,7 +4344,7 @@
         <v>80.25</v>
       </c>
       <c r="F2">
-        <v>78.60456848144531</v>
+        <v>77.84496307373047</v>
       </c>
       <c r="G2">
         <v>781300</v>
@@ -4367,7 +4367,7 @@
         <v>80.70999908447266</v>
       </c>
       <c r="F3">
-        <v>79.05513763427734</v>
+        <v>78.29118347167969</v>
       </c>
       <c r="G3">
         <v>892600</v>
@@ -4390,7 +4390,7 @@
         <v>79.11000061035156</v>
       </c>
       <c r="F4">
-        <v>77.48794555664062</v>
+        <v>76.7391357421875</v>
       </c>
       <c r="G4">
         <v>664900</v>
@@ -4413,7 +4413,7 @@
         <v>77.91000366210938</v>
       </c>
       <c r="F5">
-        <v>76.31255340576172</v>
+        <v>75.57509613037109</v>
       </c>
       <c r="G5">
         <v>973400</v>
@@ -4436,7 +4436,7 @@
         <v>78.88999938964844</v>
       </c>
       <c r="F6">
-        <v>77.27245330810547</v>
+        <v>76.52571868896484</v>
       </c>
       <c r="G6">
         <v>1493800</v>
@@ -4459,7 +4459,7 @@
         <v>78.26000213623047</v>
       </c>
       <c r="F7">
-        <v>76.65537261962891</v>
+        <v>75.91460418701172</v>
       </c>
       <c r="G7">
         <v>586700</v>
@@ -4482,7 +4482,7 @@
         <v>77.61000061035156</v>
       </c>
       <c r="F8">
-        <v>76.01869964599609</v>
+        <v>75.28408813476562</v>
       </c>
       <c r="G8">
         <v>469900</v>
@@ -4505,7 +4505,7 @@
         <v>78.04000091552734</v>
       </c>
       <c r="F9">
-        <v>76.43988037109375</v>
+        <v>75.70119476318359</v>
       </c>
       <c r="G9">
         <v>433900</v>
@@ -4528,7 +4528,7 @@
         <v>77.66000366210938</v>
       </c>
       <c r="F10">
-        <v>76.06768035888672</v>
+        <v>75.33258819580078</v>
       </c>
       <c r="G10">
         <v>242900</v>
@@ -4551,7 +4551,7 @@
         <v>75.83999633789062</v>
       </c>
       <c r="F11">
-        <v>74.28498840332031</v>
+        <v>73.56712341308594</v>
       </c>
       <c r="G11">
         <v>654800</v>
@@ -4574,7 +4574,7 @@
         <v>75.76000213623047</v>
       </c>
       <c r="F12">
-        <v>74.20663452148438</v>
+        <v>73.48952484130859</v>
       </c>
       <c r="G12">
         <v>405300</v>
@@ -4597,7 +4597,7 @@
         <v>74.70999908447266</v>
       </c>
       <c r="F13">
-        <v>73.17816162109375</v>
+        <v>72.47099304199219</v>
       </c>
       <c r="G13">
         <v>427100</v>
@@ -4620,7 +4620,7 @@
         <v>75.08999633789062</v>
       </c>
       <c r="F14">
-        <v>73.55036163330078</v>
+        <v>72.839599609375</v>
       </c>
       <c r="G14">
         <v>347600</v>
@@ -4643,7 +4643,7 @@
         <v>75.68000030517578</v>
       </c>
       <c r="F15">
-        <v>74.12827301025391</v>
+        <v>73.41192626953125</v>
       </c>
       <c r="G15">
         <v>618700</v>
@@ -4666,7 +4666,7 @@
         <v>74.87999725341797</v>
       </c>
       <c r="F16">
-        <v>73.34467315673828</v>
+        <v>72.63589477539062</v>
       </c>
       <c r="G16">
         <v>384700</v>
@@ -4689,7 +4689,7 @@
         <v>74.29000091552734</v>
       </c>
       <c r="F17">
-        <v>72.76677703857422</v>
+        <v>72.06358337402344</v>
       </c>
       <c r="G17">
         <v>434800</v>
@@ -4712,7 +4712,7 @@
         <v>74.91000366210938</v>
       </c>
       <c r="F18">
-        <v>73.37406921386719</v>
+        <v>72.66500854492188</v>
       </c>
       <c r="G18">
         <v>312600</v>
@@ -4735,7 +4735,7 @@
         <v>74.75</v>
       </c>
       <c r="F19">
-        <v>73.21734619140625</v>
+        <v>72.50979614257812</v>
       </c>
       <c r="G19">
         <v>230500</v>
@@ -4758,7 +4758,7 @@
         <v>75.94999694824219</v>
       </c>
       <c r="F20">
-        <v>74.39273834228516</v>
+        <v>73.673828125</v>
       </c>
       <c r="G20">
         <v>945300</v>
@@ -4781,7 +4781,7 @@
         <v>76.97000122070312</v>
       </c>
       <c r="F21">
-        <v>75.39183044433594</v>
+        <v>74.66326904296875</v>
       </c>
       <c r="G21">
         <v>453300</v>
@@ -4804,7 +4804,7 @@
         <v>77.80000305175781</v>
       </c>
       <c r="F22">
-        <v>76.20481109619141</v>
+        <v>75.46839904785156</v>
       </c>
       <c r="G22">
         <v>644600</v>
@@ -4827,7 +4827,7 @@
         <v>80.06999969482422</v>
       </c>
       <c r="F23">
-        <v>78.42826080322266</v>
+        <v>77.67036437988281</v>
       </c>
       <c r="G23">
         <v>674300</v>
@@ -4850,7 +4850,7 @@
         <v>77.87999725341797</v>
       </c>
       <c r="F24">
-        <v>76.28316497802734</v>
+        <v>75.54598999023438</v>
       </c>
       <c r="G24">
         <v>829500</v>
@@ -4873,7 +4873,7 @@
         <v>75.63999938964844</v>
       </c>
       <c r="F25">
-        <v>74.08908843994141</v>
+        <v>73.37312316894531</v>
       </c>
       <c r="G25">
         <v>585600</v>
@@ -4896,7 +4896,7 @@
         <v>76.52999877929688</v>
       </c>
       <c r="F26">
-        <v>74.96083831787109</v>
+        <v>74.23644256591797</v>
       </c>
       <c r="G26">
         <v>374200</v>
@@ -4919,7 +4919,7 @@
         <v>76.11000061035156</v>
       </c>
       <c r="F27">
-        <v>74.54945373535156</v>
+        <v>73.82904052734375</v>
       </c>
       <c r="G27">
         <v>282600</v>
@@ -4942,7 +4942,7 @@
         <v>75.47000122070312</v>
       </c>
       <c r="F28">
-        <v>73.92257690429688</v>
+        <v>73.20822143554688</v>
       </c>
       <c r="G28">
         <v>276500</v>
@@ -4965,7 +4965,7 @@
         <v>75.31999969482422</v>
       </c>
       <c r="F29">
-        <v>73.77565765380859</v>
+        <v>73.06271362304688</v>
       </c>
       <c r="G29">
         <v>222300</v>
@@ -4988,7 +4988,7 @@
         <v>75.37999725341797</v>
       </c>
       <c r="F30">
-        <v>73.83442687988281</v>
+        <v>73.12091827392578</v>
       </c>
       <c r="G30">
         <v>937400</v>
@@ -5011,7 +5011,7 @@
         <v>73.77999877929688</v>
       </c>
       <c r="F31">
-        <v>72.26723480224609</v>
+        <v>71.56887054443359</v>
       </c>
       <c r="G31">
         <v>575600</v>
@@ -5034,7 +5034,7 @@
         <v>74.13999938964844</v>
       </c>
       <c r="F32">
-        <v>72.61985015869141</v>
+        <v>71.91808319091797</v>
       </c>
       <c r="G32">
         <v>400700</v>
@@ -5057,7 +5057,7 @@
         <v>74.65000152587891</v>
       </c>
       <c r="F33">
-        <v>73.11939239501953</v>
+        <v>72.41278839111328</v>
       </c>
       <c r="G33">
         <v>317900</v>
@@ -5080,7 +5080,7 @@
         <v>74.20999908447266</v>
       </c>
       <c r="F34">
-        <v>72.68841552734375</v>
+        <v>71.98598480224609</v>
       </c>
       <c r="G34">
         <v>291400</v>
@@ -5103,7 +5103,7 @@
         <v>74.15000152587891</v>
       </c>
       <c r="F35">
-        <v>72.62964630126953</v>
+        <v>71.92778015136719</v>
       </c>
       <c r="G35">
         <v>238700</v>
@@ -5126,7 +5126,7 @@
         <v>73.47000122070312</v>
       </c>
       <c r="F36">
-        <v>71.96358489990234</v>
+        <v>71.26815795898438</v>
       </c>
       <c r="G36">
         <v>295800</v>
@@ -5149,7 +5149,7 @@
         <v>73.95999908447266</v>
       </c>
       <c r="F37">
-        <v>72.44353485107422</v>
+        <v>71.74346923828125</v>
       </c>
       <c r="G37">
         <v>265200</v>
@@ -5172,7 +5172,7 @@
         <v>75.48999786376953</v>
       </c>
       <c r="F38">
-        <v>73.94216156005859</v>
+        <v>73.22761535644531</v>
       </c>
       <c r="G38">
         <v>342900</v>
@@ -5195,7 +5195,7 @@
         <v>75.08000183105469</v>
       </c>
       <c r="F39">
-        <v>73.54057312011719</v>
+        <v>72.82990264892578</v>
       </c>
       <c r="G39">
         <v>260600</v>
@@ -5218,7 +5218,7 @@
         <v>74.37999725341797</v>
       </c>
       <c r="F40">
-        <v>72.85492706298828</v>
+        <v>72.15087890625</v>
       </c>
       <c r="G40">
         <v>324500</v>
@@ -5241,7 +5241,7 @@
         <v>75</v>
       </c>
       <c r="F41">
-        <v>73.46221160888672</v>
+        <v>72.75230407714844</v>
       </c>
       <c r="G41">
         <v>301500</v>
@@ -5264,7 +5264,7 @@
         <v>75.76000213623047</v>
       </c>
       <c r="F42">
-        <v>74.20663452148438</v>
+        <v>73.48952484130859</v>
       </c>
       <c r="G42">
         <v>398400</v>
@@ -5287,7 +5287,7 @@
         <v>76.34999847412109</v>
       </c>
       <c r="F43">
-        <v>74.78453826904297</v>
+        <v>74.06184387207031</v>
       </c>
       <c r="G43">
         <v>472600</v>
@@ -5310,7 +5310,7 @@
         <v>76.02999877929688</v>
       </c>
       <c r="F44">
-        <v>74.47109222412109</v>
+        <v>73.75143432617188</v>
       </c>
       <c r="G44">
         <v>1149300</v>
@@ -5333,7 +5333,7 @@
         <v>77.51000213623047</v>
       </c>
       <c r="F45">
-        <v>75.92074584960938</v>
+        <v>75.18708038330078</v>
       </c>
       <c r="G45">
         <v>387200</v>
@@ -5356,7 +5356,7 @@
         <v>78.05999755859375</v>
       </c>
       <c r="F46">
-        <v>76.45946502685547</v>
+        <v>75.72059631347656</v>
       </c>
       <c r="G46">
         <v>398500</v>
@@ -5379,7 +5379,7 @@
         <v>77.88999938964844</v>
       </c>
       <c r="F47">
-        <v>76.29296112060547</v>
+        <v>75.55569458007812</v>
       </c>
       <c r="G47">
         <v>467900</v>
@@ -5402,7 +5402,7 @@
         <v>77.75</v>
       </c>
       <c r="F48">
-        <v>76.15583038330078</v>
+        <v>75.41988372802734</v>
       </c>
       <c r="G48">
         <v>641300</v>
@@ -5425,7 +5425,7 @@
         <v>77.62000274658203</v>
       </c>
       <c r="F49">
-        <v>76.02849578857422</v>
+        <v>75.29378509521484</v>
       </c>
       <c r="G49">
         <v>471300</v>
@@ -5448,7 +5448,7 @@
         <v>76.77999877929688</v>
       </c>
       <c r="F50">
-        <v>75.20571899414062</v>
+        <v>74.47895812988281</v>
       </c>
       <c r="G50">
         <v>376700</v>
@@ -5471,7 +5471,7 @@
         <v>76.27999877929688</v>
       </c>
       <c r="F51">
-        <v>74.71597290039062</v>
+        <v>73.99394989013672</v>
       </c>
       <c r="G51">
         <v>282600</v>
@@ -5494,7 +5494,7 @@
         <v>74.58000183105469</v>
       </c>
       <c r="F52">
-        <v>73.05082702636719</v>
+        <v>72.34488677978516</v>
       </c>
       <c r="G52">
         <v>594700</v>
@@ -5517,7 +5517,7 @@
         <v>74.69999694824219</v>
       </c>
       <c r="F53">
-        <v>73.16836547851562</v>
+        <v>72.46129608154297</v>
       </c>
       <c r="G53">
         <v>680700</v>
@@ -5540,7 +5540,7 @@
         <v>74.34999847412109</v>
       </c>
       <c r="F54">
-        <v>72.82554626464844</v>
+        <v>72.12178039550781</v>
       </c>
       <c r="G54">
         <v>264400</v>
@@ -5563,7 +5563,7 @@
         <v>74.62000274658203</v>
       </c>
       <c r="F55">
-        <v>73.09001159667969</v>
+        <v>72.38369750976562</v>
       </c>
       <c r="G55">
         <v>824900</v>
@@ -5586,7 +5586,7 @@
         <v>74.43000030517578</v>
       </c>
       <c r="F56">
-        <v>72.90390014648438</v>
+        <v>72.19938659667969</v>
       </c>
       <c r="G56">
         <v>334300</v>
@@ -5609,7 +5609,7 @@
         <v>74.62999725341797</v>
       </c>
       <c r="F57">
-        <v>73.09980010986328</v>
+        <v>72.39338684082031</v>
       </c>
       <c r="G57">
         <v>492900</v>
@@ -5632,7 +5632,7 @@
         <v>75.66000366210938</v>
       </c>
       <c r="F58">
-        <v>74.10868835449219</v>
+        <v>73.39253234863281</v>
       </c>
       <c r="G58">
         <v>227400</v>
@@ -5655,7 +5655,7 @@
         <v>75.12000274658203</v>
       </c>
       <c r="F59">
-        <v>73.57975769042969</v>
+        <v>72.86870574951172</v>
       </c>
       <c r="G59">
         <v>312400</v>
@@ -5678,7 +5678,7 @@
         <v>75.54000091552734</v>
       </c>
       <c r="F60">
-        <v>73.99114227294922</v>
+        <v>73.276123046875</v>
       </c>
       <c r="G60">
         <v>252400</v>
@@ -5701,7 +5701,7 @@
         <v>76.41999816894531</v>
       </c>
       <c r="F61">
-        <v>74.85310363769531</v>
+        <v>74.12974548339844</v>
       </c>
       <c r="G61">
         <v>646000</v>
@@ -5724,7 +5724,7 @@
         <v>76.59999847412109</v>
       </c>
       <c r="F62">
-        <v>75.02940368652344</v>
+        <v>74.30435180664062</v>
       </c>
       <c r="G62">
         <v>777200</v>
@@ -5747,7 +5747,7 @@
         <v>73.69000244140625</v>
       </c>
       <c r="F63">
-        <v>72.91104125976562</v>
+        <v>72.20645141601562</v>
       </c>
       <c r="G63">
         <v>1116700</v>
@@ -5770,7 +5770,7 @@
         <v>73.23000335693359</v>
       </c>
       <c r="F64">
-        <v>72.45590972900391</v>
+        <v>71.75572204589844</v>
       </c>
       <c r="G64">
         <v>563800</v>
@@ -5793,7 +5793,7 @@
         <v>73.05000305175781</v>
       </c>
       <c r="F65">
-        <v>72.27780914306641</v>
+        <v>71.579345703125</v>
       </c>
       <c r="G65">
         <v>552900</v>
@@ -5816,7 +5816,7 @@
         <v>73.80000305175781</v>
       </c>
       <c r="F66">
-        <v>73.01988220214844</v>
+        <v>72.31424713134766</v>
       </c>
       <c r="G66">
         <v>483600</v>
@@ -5839,7 +5839,7 @@
         <v>72.44000244140625</v>
       </c>
       <c r="F67">
-        <v>71.67425537109375</v>
+        <v>70.98162078857422</v>
       </c>
       <c r="G67">
         <v>353100</v>
@@ -5862,7 +5862,7 @@
         <v>72.44999694824219</v>
       </c>
       <c r="F68">
-        <v>71.68414306640625</v>
+        <v>70.99141693115234</v>
       </c>
       <c r="G68">
         <v>425500</v>
@@ -5885,7 +5885,7 @@
         <v>73.33000183105469</v>
       </c>
       <c r="F69">
-        <v>72.55484771728516</v>
+        <v>71.85370635986328</v>
       </c>
       <c r="G69">
         <v>229900</v>
@@ -5908,7 +5908,7 @@
         <v>71.36000061035156</v>
       </c>
       <c r="F70">
-        <v>70.60566711425781</v>
+        <v>69.92336273193359</v>
       </c>
       <c r="G70">
         <v>801300</v>
@@ -5931,7 +5931,7 @@
         <v>70.83000183105469</v>
       </c>
       <c r="F71">
-        <v>70.08127593994141</v>
+        <v>69.40403747558594</v>
       </c>
       <c r="G71">
         <v>370300</v>
@@ -5954,7 +5954,7 @@
         <v>71.34999847412109</v>
       </c>
       <c r="F72">
-        <v>70.59577178955078</v>
+        <v>69.91355895996094</v>
       </c>
       <c r="G72">
         <v>251100</v>
@@ -5977,7 +5977,7 @@
         <v>69.73999786376953</v>
       </c>
       <c r="F73">
-        <v>69.00279235839844</v>
+        <v>68.33597564697266</v>
       </c>
       <c r="G73">
         <v>735700</v>
@@ -6000,7 +6000,7 @@
         <v>69.06999969482422</v>
       </c>
       <c r="F74">
-        <v>68.33987426757812</v>
+        <v>67.67945861816406</v>
       </c>
       <c r="G74">
         <v>1197600</v>
@@ -6023,7 +6023,7 @@
         <v>70.05000305175781</v>
       </c>
       <c r="F75">
-        <v>69.30952453613281</v>
+        <v>68.63973999023438</v>
       </c>
       <c r="G75">
         <v>310800</v>
@@ -6046,7 +6046,7 @@
         <v>69.61000061035156</v>
       </c>
       <c r="F76">
-        <v>68.87416839599609</v>
+        <v>68.20859527587891</v>
       </c>
       <c r="G76">
         <v>237400</v>
@@ -6069,7 +6069,7 @@
         <v>69.93000030517578</v>
       </c>
       <c r="F77">
-        <v>69.19078826904297</v>
+        <v>68.52215576171875</v>
       </c>
       <c r="G77">
         <v>266300</v>
@@ -6092,7 +6092,7 @@
         <v>69.83000183105469</v>
       </c>
       <c r="F78">
-        <v>69.09184265136719</v>
+        <v>68.42416381835938</v>
       </c>
       <c r="G78">
         <v>246000</v>
@@ -6115,7 +6115,7 @@
         <v>69.70999908447266</v>
       </c>
       <c r="F79">
-        <v>68.97311401367188</v>
+        <v>68.30657958984375</v>
       </c>
       <c r="G79">
         <v>311200</v>
@@ -6138,7 +6138,7 @@
         <v>68.95999908447266</v>
       </c>
       <c r="F80">
-        <v>68.23104095458984</v>
+        <v>67.57167816162109</v>
       </c>
       <c r="G80">
         <v>423900</v>
@@ -6161,7 +6161,7 @@
         <v>68.41000366210938</v>
       </c>
       <c r="F81">
-        <v>67.68685913085938</v>
+        <v>67.03276062011719</v>
       </c>
       <c r="G81">
         <v>382800</v>
@@ -6184,7 +6184,7 @@
         <v>68.83999633789062</v>
       </c>
       <c r="F82">
-        <v>68.1123046875</v>
+        <v>67.45409393310547</v>
       </c>
       <c r="G82">
         <v>305400</v>
@@ -6207,7 +6207,7 @@
         <v>69.58999633789062</v>
       </c>
       <c r="F83">
-        <v>68.85437774658203</v>
+        <v>68.18899536132812</v>
       </c>
       <c r="G83">
         <v>309600</v>
@@ -6230,7 +6230,7 @@
         <v>68.88999938964844</v>
       </c>
       <c r="F84">
-        <v>68.16178131103516</v>
+        <v>67.50308990478516</v>
       </c>
       <c r="G84">
         <v>230000</v>
@@ -6253,7 +6253,7 @@
         <v>69.79000091552734</v>
       </c>
       <c r="F85">
-        <v>69.05226898193359</v>
+        <v>68.38497161865234</v>
       </c>
       <c r="G85">
         <v>296300</v>
@@ -6276,7 +6276,7 @@
         <v>69.76999664306641</v>
       </c>
       <c r="F86">
-        <v>69.032470703125</v>
+        <v>68.36536407470703</v>
       </c>
       <c r="G86">
         <v>471200</v>
@@ -6299,7 +6299,7 @@
         <v>70.75</v>
       </c>
       <c r="F87">
-        <v>70.00212097167969</v>
+        <v>69.32564544677734</v>
       </c>
       <c r="G87">
         <v>376900</v>
@@ -6322,7 +6322,7 @@
         <v>71.23999786376953</v>
       </c>
       <c r="F88">
-        <v>70.4869384765625</v>
+        <v>69.80577850341797</v>
       </c>
       <c r="G88">
         <v>349900</v>
@@ -6345,7 +6345,7 @@
         <v>71.98000335693359</v>
       </c>
       <c r="F89">
-        <v>71.2191162109375</v>
+        <v>70.5308837890625</v>
       </c>
       <c r="G89">
         <v>275400</v>
@@ -6368,7 +6368,7 @@
         <v>71.33000183105469</v>
       </c>
       <c r="F90">
-        <v>70.57598876953125</v>
+        <v>69.89396667480469</v>
       </c>
       <c r="G90">
         <v>203700</v>
@@ -6391,7 +6391,7 @@
         <v>71.80000305175781</v>
       </c>
       <c r="F91">
-        <v>71.04102325439453</v>
+        <v>70.35450744628906</v>
       </c>
       <c r="G91">
         <v>183600</v>
@@ -6414,7 +6414,7 @@
         <v>71.26999664306641</v>
       </c>
       <c r="F92">
-        <v>70.51661682128906</v>
+        <v>69.83516693115234</v>
       </c>
       <c r="G92">
         <v>159300</v>
@@ -6437,7 +6437,7 @@
         <v>71.5</v>
       </c>
       <c r="F93">
-        <v>70.74419403076172</v>
+        <v>70.060546875</v>
       </c>
       <c r="G93">
         <v>159200</v>
@@ -6460,7 +6460,7 @@
         <v>71.94999694824219</v>
       </c>
       <c r="F94">
-        <v>71.18943023681641</v>
+        <v>70.50148010253906</v>
       </c>
       <c r="G94">
         <v>163000</v>
@@ -6483,7 +6483,7 @@
         <v>73.43000030517578</v>
       </c>
       <c r="F95">
-        <v>72.65378570556641</v>
+        <v>71.95168304443359</v>
       </c>
       <c r="G95">
         <v>507100</v>
@@ -6506,7 +6506,7 @@
         <v>73.29000091552734</v>
       </c>
       <c r="F96">
-        <v>72.51526641845703</v>
+        <v>71.81450653076172</v>
       </c>
       <c r="G96">
         <v>367300</v>
@@ -6529,7 +6529,7 @@
         <v>72.66999816894531</v>
       </c>
       <c r="F97">
-        <v>71.90181732177734</v>
+        <v>71.20698547363281</v>
       </c>
       <c r="G97">
         <v>332900</v>
@@ -6552,7 +6552,7 @@
         <v>72.38999938964844</v>
       </c>
       <c r="F98">
-        <v>71.62477874755859</v>
+        <v>70.93262481689453</v>
       </c>
       <c r="G98">
         <v>233500</v>
@@ -6575,7 +6575,7 @@
         <v>72.90000152587891</v>
       </c>
       <c r="F99">
-        <v>72.12939453125</v>
+        <v>71.43236541748047</v>
       </c>
       <c r="G99">
         <v>197200</v>
@@ -6598,7 +6598,7 @@
         <v>73.05999755859375</v>
       </c>
       <c r="F100">
-        <v>72.28769683837891</v>
+        <v>71.58913421630859</v>
       </c>
       <c r="G100">
         <v>281900</v>
@@ -6621,7 +6621,7 @@
         <v>72.47000122070312</v>
       </c>
       <c r="F101">
-        <v>71.70394134521484</v>
+        <v>71.01101684570312</v>
       </c>
       <c r="G101">
         <v>267400</v>
@@ -6644,7 +6644,7 @@
         <v>72.84999847412109</v>
       </c>
       <c r="F102">
-        <v>72.07991790771484</v>
+        <v>71.38336181640625</v>
       </c>
       <c r="G102">
         <v>274700</v>
@@ -6667,7 +6667,7 @@
         <v>71.16999816894531</v>
       </c>
       <c r="F103">
-        <v>70.41767883300781</v>
+        <v>69.73719024658203</v>
       </c>
       <c r="G103">
         <v>431600</v>
@@ -6690,7 +6690,7 @@
         <v>69.95999908447266</v>
       </c>
       <c r="F104">
-        <v>69.22046661376953</v>
+        <v>68.55154418945312</v>
       </c>
       <c r="G104">
         <v>371000</v>
@@ -6713,7 +6713,7 @@
         <v>70.88999938964844</v>
       </c>
       <c r="F105">
-        <v>70.14064025878906</v>
+        <v>69.46282958984375</v>
       </c>
       <c r="G105">
         <v>243700</v>
@@ -6736,7 +6736,7 @@
         <v>71.62000274658203</v>
       </c>
       <c r="F106">
-        <v>70.86292266845703</v>
+        <v>70.17813110351562</v>
       </c>
       <c r="G106">
         <v>320400</v>
@@ -6759,7 +6759,7 @@
         <v>73.15000152587891</v>
       </c>
       <c r="F107">
-        <v>72.37674713134766</v>
+        <v>71.67732238769531</v>
       </c>
       <c r="G107">
         <v>468500</v>
@@ -6782,7 +6782,7 @@
         <v>74.36000061035156</v>
       </c>
       <c r="F108">
-        <v>73.57395935058594</v>
+        <v>72.86296844482422</v>
       </c>
       <c r="G108">
         <v>461900</v>
@@ -6805,7 +6805,7 @@
         <v>75</v>
       </c>
       <c r="F109">
-        <v>74.20719146728516</v>
+        <v>73.49008178710938</v>
       </c>
       <c r="G109">
         <v>722900</v>
@@ -6828,7 +6828,7 @@
         <v>75.04000091552734</v>
       </c>
       <c r="F110">
-        <v>74.24677276611328</v>
+        <v>73.52928161621094</v>
       </c>
       <c r="G110">
         <v>267700</v>
@@ -6851,7 +6851,7 @@
         <v>73.02999877929688</v>
       </c>
       <c r="F111">
-        <v>72.25801849365234</v>
+        <v>71.55974578857422</v>
       </c>
       <c r="G111">
         <v>757800</v>
@@ -6874,7 +6874,7 @@
         <v>72.36000061035156</v>
       </c>
       <c r="F112">
-        <v>71.59510040283203</v>
+        <v>70.90322875976562</v>
       </c>
       <c r="G112">
         <v>391000</v>
@@ -6897,7 +6897,7 @@
         <v>73.37000274658203</v>
       </c>
       <c r="F113">
-        <v>72.59442901611328</v>
+        <v>71.89290618896484</v>
       </c>
       <c r="G113">
         <v>359600</v>
@@ -6920,7 +6920,7 @@
         <v>74.11000061035156</v>
       </c>
       <c r="F114">
-        <v>73.32659912109375</v>
+        <v>72.61799621582031</v>
       </c>
       <c r="G114">
         <v>436300</v>
@@ -6943,7 +6943,7 @@
         <v>75.65000152587891</v>
       </c>
       <c r="F115">
-        <v>74.85032653808594</v>
+        <v>74.12699890136719</v>
       </c>
       <c r="G115">
         <v>424700</v>
@@ -6966,7 +6966,7 @@
         <v>76.58000183105469</v>
       </c>
       <c r="F116">
-        <v>75.77049255371094</v>
+        <v>75.03827667236328</v>
       </c>
       <c r="G116">
         <v>831200</v>
@@ -6989,7 +6989,7 @@
         <v>75.48999786376953</v>
       </c>
       <c r="F117">
-        <v>74.69200897216797</v>
+        <v>73.97021484375</v>
       </c>
       <c r="G117">
         <v>1177000</v>
@@ -7012,7 +7012,7 @@
         <v>76.54000091552734</v>
       </c>
       <c r="F118">
-        <v>75.73091125488281</v>
+        <v>74.99907684326172</v>
       </c>
       <c r="G118">
         <v>833300</v>
@@ -7035,7 +7035,7 @@
         <v>75.73999786376953</v>
       </c>
       <c r="F119">
-        <v>74.93936920166016</v>
+        <v>74.21517944335938</v>
       </c>
       <c r="G119">
         <v>487700</v>
@@ -7058,7 +7058,7 @@
         <v>75.75</v>
       </c>
       <c r="F120">
-        <v>74.94926452636719</v>
+        <v>74.22498321533203</v>
       </c>
       <c r="G120">
         <v>233900</v>
@@ -7081,7 +7081,7 @@
         <v>76.22000122070312</v>
       </c>
       <c r="F121">
-        <v>75.41429901123047</v>
+        <v>74.68552398681641</v>
       </c>
       <c r="G121">
         <v>513300</v>
@@ -7104,7 +7104,7 @@
         <v>76.38999938964844</v>
       </c>
       <c r="F122">
-        <v>75.58249664306641</v>
+        <v>74.85209655761719</v>
       </c>
       <c r="G122">
         <v>421300</v>
@@ -7127,7 +7127,7 @@
         <v>75</v>
       </c>
       <c r="F123">
-        <v>74.20719146728516</v>
+        <v>73.49008178710938</v>
       </c>
       <c r="G123">
         <v>362800</v>
@@ -7150,7 +7150,7 @@
         <v>75.16999816894531</v>
       </c>
       <c r="F124">
-        <v>74.37539672851562</v>
+        <v>73.65666198730469</v>
       </c>
       <c r="G124">
         <v>237100</v>
@@ -7173,7 +7173,7 @@
         <v>73.41000366210938</v>
       </c>
       <c r="F125">
-        <v>72.63400268554688</v>
+        <v>71.93209075927734</v>
       </c>
       <c r="G125">
         <v>453600</v>
@@ -7196,7 +7196,7 @@
         <v>70.73000335693359</v>
       </c>
       <c r="F126">
-        <v>70.73000335693359</v>
+        <v>70.04649353027344</v>
       </c>
       <c r="G126">
         <v>963900</v>
@@ -7219,7 +7219,7 @@
         <v>71.41999816894531</v>
       </c>
       <c r="F127">
-        <v>71.41999816894531</v>
+        <v>70.72982025146484</v>
       </c>
       <c r="G127">
         <v>937400</v>
@@ -7242,7 +7242,7 @@
         <v>72.66000366210938</v>
       </c>
       <c r="F128">
-        <v>72.66000366210938</v>
+        <v>71.95783996582031</v>
       </c>
       <c r="G128">
         <v>371200</v>
@@ -7265,7 +7265,7 @@
         <v>73.38999938964844</v>
       </c>
       <c r="F129">
-        <v>73.38999938964844</v>
+        <v>72.6807861328125</v>
       </c>
       <c r="G129">
         <v>408800</v>
@@ -7288,7 +7288,7 @@
         <v>73.61000061035156</v>
       </c>
       <c r="F130">
-        <v>73.61000061035156</v>
+        <v>72.89865875244141</v>
       </c>
       <c r="G130">
         <v>208900</v>
@@ -7311,7 +7311,7 @@
         <v>73.16999816894531</v>
       </c>
       <c r="F131">
-        <v>73.16999816894531</v>
+        <v>72.46290588378906</v>
       </c>
       <c r="G131">
         <v>500400</v>
@@ -7334,7 +7334,7 @@
         <v>73.54000091552734</v>
       </c>
       <c r="F132">
-        <v>73.54000091552734</v>
+        <v>72.82933807373047</v>
       </c>
       <c r="G132">
         <v>333200</v>
@@ -7357,7 +7357,7 @@
         <v>74.55000305175781</v>
       </c>
       <c r="F133">
-        <v>74.55000305175781</v>
+        <v>73.82958221435547</v>
       </c>
       <c r="G133">
         <v>747300</v>
@@ -7380,7 +7380,7 @@
         <v>74.83999633789062</v>
       </c>
       <c r="F134">
-        <v>74.83999633789062</v>
+        <v>74.11676788330078</v>
       </c>
       <c r="G134">
         <v>511200</v>
@@ -7403,7 +7403,7 @@
         <v>73.62999725341797</v>
       </c>
       <c r="F135">
-        <v>73.62999725341797</v>
+        <v>72.91846466064453</v>
       </c>
       <c r="G135">
         <v>487700</v>
@@ -7426,7 +7426,7 @@
         <v>75.12999725341797</v>
       </c>
       <c r="F136">
-        <v>75.12999725341797</v>
+        <v>74.40396881103516</v>
       </c>
       <c r="G136">
         <v>904000</v>
@@ -7449,7 +7449,7 @@
         <v>75.16000366210938</v>
       </c>
       <c r="F137">
-        <v>75.16000366210938</v>
+        <v>74.43368530273438</v>
       </c>
       <c r="G137">
         <v>565700</v>
@@ -7472,7 +7472,7 @@
         <v>74.38999938964844</v>
       </c>
       <c r="F138">
-        <v>74.38999938964844</v>
+        <v>73.67111968994141</v>
       </c>
       <c r="G138">
         <v>312300</v>
@@ -7495,7 +7495,7 @@
         <v>73.80999755859375</v>
       </c>
       <c r="F139">
-        <v>73.80999755859375</v>
+        <v>73.09672546386719</v>
       </c>
       <c r="G139">
         <v>533200</v>
@@ -7518,7 +7518,7 @@
         <v>73.34999847412109</v>
       </c>
       <c r="F140">
-        <v>73.34999847412109</v>
+        <v>72.64116668701172</v>
       </c>
       <c r="G140">
         <v>505000</v>
@@ -7541,7 +7541,7 @@
         <v>73.23000335693359</v>
       </c>
       <c r="F141">
-        <v>73.23000335693359</v>
+        <v>72.52233123779297</v>
       </c>
       <c r="G141">
         <v>262900</v>
@@ -7564,7 +7564,7 @@
         <v>72.04000091552734</v>
       </c>
       <c r="F142">
-        <v>72.04000091552734</v>
+        <v>71.34383392333984</v>
       </c>
       <c r="G142">
         <v>701200</v>
@@ -7587,7 +7587,7 @@
         <v>72.88999938964844</v>
       </c>
       <c r="F143">
-        <v>72.88999938964844</v>
+        <v>72.18561553955078</v>
       </c>
       <c r="G143">
         <v>522800</v>
@@ -7610,7 +7610,7 @@
         <v>73.59999847412109</v>
       </c>
       <c r="F144">
-        <v>73.59999847412109</v>
+        <v>72.88875579833984</v>
       </c>
       <c r="G144">
         <v>254400</v>
@@ -7633,7 +7633,7 @@
         <v>74.23999786376953</v>
       </c>
       <c r="F145">
-        <v>74.23999786376953</v>
+        <v>73.52256774902344</v>
       </c>
       <c r="G145">
         <v>298200</v>
@@ -7656,7 +7656,7 @@
         <v>74.5</v>
       </c>
       <c r="F146">
-        <v>74.5</v>
+        <v>73.78005981445312</v>
       </c>
       <c r="G146">
         <v>455100</v>
@@ -7679,7 +7679,7 @@
         <v>75.56999969482422</v>
       </c>
       <c r="F147">
-        <v>75.56999969482422</v>
+        <v>74.8397216796875</v>
       </c>
       <c r="G147">
         <v>653700</v>
@@ -7702,7 +7702,7 @@
         <v>76.56999969482422</v>
       </c>
       <c r="F148">
-        <v>76.56999969482422</v>
+        <v>75.83005523681641</v>
       </c>
       <c r="G148">
         <v>975900</v>
@@ -7725,7 +7725,7 @@
         <v>79.69999694824219</v>
       </c>
       <c r="F149">
-        <v>79.69999694824219</v>
+        <v>78.92980194091797</v>
       </c>
       <c r="G149">
         <v>1794800</v>
@@ -7748,7 +7748,7 @@
         <v>80.34999847412109</v>
       </c>
       <c r="F150">
-        <v>80.34999847412109</v>
+        <v>79.57352447509766</v>
       </c>
       <c r="G150">
         <v>2457100</v>
@@ -7771,7 +7771,7 @@
         <v>77.87999725341797</v>
       </c>
       <c r="F151">
-        <v>77.87999725341797</v>
+        <v>77.12739562988281</v>
       </c>
       <c r="G151">
         <v>1340400</v>
@@ -7794,7 +7794,7 @@
         <v>76.94000244140625</v>
       </c>
       <c r="F152">
-        <v>76.94000244140625</v>
+        <v>76.19647979736328</v>
       </c>
       <c r="G152">
         <v>887000</v>
@@ -7817,7 +7817,7 @@
         <v>76.29000091552734</v>
       </c>
       <c r="F153">
-        <v>76.29000091552734</v>
+        <v>75.55276489257812</v>
       </c>
       <c r="G153">
         <v>692600</v>
@@ -7840,7 +7840,7 @@
         <v>77.55000305175781</v>
       </c>
       <c r="F154">
-        <v>77.55000305175781</v>
+        <v>76.80059051513672</v>
       </c>
       <c r="G154">
         <v>1164300</v>
@@ -7863,7 +7863,7 @@
         <v>77.83999633789062</v>
       </c>
       <c r="F155">
-        <v>77.83999633789062</v>
+        <v>77.08777618408203</v>
       </c>
       <c r="G155">
         <v>893400</v>
@@ -7886,7 +7886,7 @@
         <v>78.58999633789062</v>
       </c>
       <c r="F156">
-        <v>78.58999633789062</v>
+        <v>77.83052825927734</v>
       </c>
       <c r="G156">
         <v>631800</v>
@@ -7909,7 +7909,7 @@
         <v>79.34999847412109</v>
       </c>
       <c r="F157">
-        <v>79.34999847412109</v>
+        <v>78.58319091796875</v>
       </c>
       <c r="G157">
         <v>517500</v>
@@ -7932,7 +7932,7 @@
         <v>78.48000335693359</v>
       </c>
       <c r="F158">
-        <v>78.48000335693359</v>
+        <v>77.72160339355469</v>
       </c>
       <c r="G158">
         <v>966100</v>
@@ -7955,7 +7955,7 @@
         <v>78.87999725341797</v>
       </c>
       <c r="F159">
-        <v>78.87999725341797</v>
+        <v>78.11772918701172</v>
       </c>
       <c r="G159">
         <v>694400</v>
@@ -7978,7 +7978,7 @@
         <v>79.45999908447266</v>
       </c>
       <c r="F160">
-        <v>79.45999908447266</v>
+        <v>78.69212341308594</v>
       </c>
       <c r="G160">
         <v>461600</v>
@@ -8001,7 +8001,7 @@
         <v>80.40000152587891</v>
       </c>
       <c r="F161">
-        <v>80.40000152587891</v>
+        <v>79.623046875</v>
       </c>
       <c r="G161">
         <v>640000</v>
@@ -8024,7 +8024,7 @@
         <v>80.44000244140625</v>
       </c>
       <c r="F162">
-        <v>80.44000244140625</v>
+        <v>79.66265869140625</v>
       </c>
       <c r="G162">
         <v>628600</v>
@@ -8047,7 +8047,7 @@
         <v>79.25</v>
       </c>
       <c r="F163">
-        <v>79.25</v>
+        <v>78.48415374755859</v>
       </c>
       <c r="G163">
         <v>967700</v>
@@ -8070,7 +8070,7 @@
         <v>79.84999847412109</v>
       </c>
       <c r="F164">
-        <v>79.84999847412109</v>
+        <v>79.07835388183594</v>
       </c>
       <c r="G164">
         <v>1190000</v>
@@ -8093,7 +8093,7 @@
         <v>79.61000061035156</v>
       </c>
       <c r="F165">
-        <v>79.61000061035156</v>
+        <v>78.84067535400391</v>
       </c>
       <c r="G165">
         <v>598600</v>
@@ -8116,7 +8116,7 @@
         <v>79.37000274658203</v>
       </c>
       <c r="F166">
-        <v>79.37000274658203</v>
+        <v>78.60299682617188</v>
       </c>
       <c r="G166">
         <v>443500</v>
@@ -8139,7 +8139,7 @@
         <v>79.25</v>
       </c>
       <c r="F167">
-        <v>79.25</v>
+        <v>78.48415374755859</v>
       </c>
       <c r="G167">
         <v>426200</v>
@@ -8162,7 +8162,7 @@
         <v>78.86000061035156</v>
       </c>
       <c r="F168">
-        <v>78.86000061035156</v>
+        <v>78.09792327880859</v>
       </c>
       <c r="G168">
         <v>579000</v>
@@ -8185,7 +8185,7 @@
         <v>77.70999908447266</v>
       </c>
       <c r="F169">
-        <v>77.70999908447266</v>
+        <v>76.95903778076172</v>
       </c>
       <c r="G169">
         <v>680600</v>
@@ -8244,7 +8244,7 @@
         <v>84.22000122070312</v>
       </c>
       <c r="F2">
-        <v>82.54647827148438</v>
+        <v>81.78530883789062</v>
       </c>
       <c r="G2">
         <v>256400</v>
@@ -8267,7 +8267,7 @@
         <v>84.69999694824219</v>
       </c>
       <c r="F3">
-        <v>83.01693725585938</v>
+        <v>82.25142669677734</v>
       </c>
       <c r="G3">
         <v>330600</v>
@@ -8290,7 +8290,7 @@
         <v>82.80000305175781</v>
       </c>
       <c r="F4">
-        <v>81.15470123291016</v>
+        <v>80.40636444091797</v>
       </c>
       <c r="G4">
         <v>363300</v>
@@ -8313,7 +8313,7 @@
         <v>81.45999908447266</v>
       </c>
       <c r="F5">
-        <v>79.84132385253906</v>
+        <v>79.1051025390625</v>
       </c>
       <c r="G5">
         <v>399800</v>
@@ -8336,7 +8336,7 @@
         <v>82.58999633789062</v>
       </c>
       <c r="F6">
-        <v>80.94886779785156</v>
+        <v>80.20242309570312</v>
       </c>
       <c r="G6">
         <v>292700</v>
@@ -8359,7 +8359,7 @@
         <v>81.75</v>
       </c>
       <c r="F7">
-        <v>80.12555694580078</v>
+        <v>79.38671112060547</v>
       </c>
       <c r="G7">
         <v>415600</v>
@@ -8382,7 +8382,7 @@
         <v>81.01000213623047</v>
       </c>
       <c r="F8">
-        <v>79.40026092529297</v>
+        <v>78.66810607910156</v>
       </c>
       <c r="G8">
         <v>218900</v>
@@ -8405,7 +8405,7 @@
         <v>81.45999908447266</v>
       </c>
       <c r="F9">
-        <v>79.84132385253906</v>
+        <v>79.1051025390625</v>
       </c>
       <c r="G9">
         <v>193200</v>
@@ -8428,7 +8428,7 @@
         <v>80.91999816894531</v>
       </c>
       <c r="F10">
-        <v>79.31204223632812</v>
+        <v>78.58070373535156</v>
       </c>
       <c r="G10">
         <v>340500</v>
@@ -8451,7 +8451,7 @@
         <v>78.77999877929688</v>
       </c>
       <c r="F11">
-        <v>77.21457672119141</v>
+        <v>76.50257110595703</v>
       </c>
       <c r="G11">
         <v>336600</v>
@@ -8474,7 +8474,7 @@
         <v>78.72000122070312</v>
       </c>
       <c r="F12">
-        <v>77.15576171875</v>
+        <v>76.44430541992188</v>
       </c>
       <c r="G12">
         <v>259600</v>
@@ -8497,7 +8497,7 @@
         <v>77.45999908447266</v>
       </c>
       <c r="F13">
-        <v>75.92080688476562</v>
+        <v>75.22073364257812</v>
       </c>
       <c r="G13">
         <v>294200</v>
@@ -8520,7 +8520,7 @@
         <v>77.84999847412109</v>
       </c>
       <c r="F14">
-        <v>76.30305480957031</v>
+        <v>75.59945678710938</v>
       </c>
       <c r="G14">
         <v>459700</v>
@@ -8543,7 +8543,7 @@
         <v>78.62000274658203</v>
       </c>
       <c r="F15">
-        <v>77.05776214599609</v>
+        <v>76.34719848632812</v>
       </c>
       <c r="G15">
         <v>360800</v>
@@ -8566,7 +8566,7 @@
         <v>77.5</v>
       </c>
       <c r="F16">
-        <v>75.96000671386719</v>
+        <v>75.25957489013672</v>
       </c>
       <c r="G16">
         <v>194500</v>
@@ -8589,7 +8589,7 @@
         <v>76.80000305175781</v>
       </c>
       <c r="F17">
-        <v>75.27392578125</v>
+        <v>74.57981109619141</v>
       </c>
       <c r="G17">
         <v>351200</v>
@@ -8612,7 +8612,7 @@
         <v>77.43000030517578</v>
       </c>
       <c r="F18">
-        <v>75.89139556884766</v>
+        <v>75.19159698486328</v>
       </c>
       <c r="G18">
         <v>228100</v>
@@ -8635,7 +8635,7 @@
         <v>77.29000091552734</v>
       </c>
       <c r="F19">
-        <v>75.75418090820312</v>
+        <v>75.05564117431641</v>
       </c>
       <c r="G19">
         <v>245100</v>
@@ -8658,7 +8658,7 @@
         <v>78.62000274658203</v>
       </c>
       <c r="F20">
-        <v>77.05776214599609</v>
+        <v>76.34719848632812</v>
       </c>
       <c r="G20">
         <v>306700</v>
@@ -8681,7 +8681,7 @@
         <v>79.88999938964844</v>
       </c>
       <c r="F21">
-        <v>78.30252075195312</v>
+        <v>77.58048248291016</v>
       </c>
       <c r="G21">
         <v>345900</v>
@@ -8704,7 +8704,7 @@
         <v>80.61000061035156</v>
       </c>
       <c r="F22">
-        <v>79.00820922851562</v>
+        <v>78.27967071533203</v>
       </c>
       <c r="G22">
         <v>383300</v>
@@ -8727,7 +8727,7 @@
         <v>83.37999725341797</v>
       </c>
       <c r="F23">
-        <v>81.72316741943359</v>
+        <v>80.96958923339844</v>
       </c>
       <c r="G23">
         <v>431700</v>
@@ -8750,7 +8750,7 @@
         <v>80.81999969482422</v>
       </c>
       <c r="F24">
-        <v>79.21404266357422</v>
+        <v>78.48360443115234</v>
       </c>
       <c r="G24">
         <v>623800</v>
@@ -8773,7 +8773,7 @@
         <v>78.30999755859375</v>
       </c>
       <c r="F25">
-        <v>76.75390625</v>
+        <v>76.04615020751953</v>
       </c>
       <c r="G25">
         <v>836000</v>
@@ -8796,7 +8796,7 @@
         <v>79.20999908447266</v>
       </c>
       <c r="F26">
-        <v>77.63603210449219</v>
+        <v>76.92014312744141</v>
       </c>
       <c r="G26">
         <v>158300</v>
@@ -8819,7 +8819,7 @@
         <v>78.70999908447266</v>
       </c>
       <c r="F27">
-        <v>77.14596557617188</v>
+        <v>76.43460083007812</v>
       </c>
       <c r="G27">
         <v>178800</v>
@@ -8842,7 +8842,7 @@
         <v>78.04000091552734</v>
       </c>
       <c r="F28">
-        <v>76.48928070068359</v>
+        <v>75.78396606445312</v>
       </c>
       <c r="G28">
         <v>115800</v>
@@ -8865,7 +8865,7 @@
         <v>77.83000183105469</v>
       </c>
       <c r="F29">
-        <v>76.28345489501953</v>
+        <v>75.58003997802734</v>
       </c>
       <c r="G29">
         <v>240500</v>
@@ -8888,7 +8888,7 @@
         <v>77.94000244140625</v>
       </c>
       <c r="F30">
-        <v>76.39127349853516</v>
+        <v>75.68685913085938</v>
       </c>
       <c r="G30">
         <v>152700</v>
@@ -8911,7 +8911,7 @@
         <v>76.23000335693359</v>
       </c>
       <c r="F31">
-        <v>74.71524810791016</v>
+        <v>74.02629089355469</v>
       </c>
       <c r="G31">
         <v>331700</v>
@@ -8934,7 +8934,7 @@
         <v>76.63999938964844</v>
       </c>
       <c r="F32">
-        <v>75.11709594726562</v>
+        <v>74.4244384765625</v>
       </c>
       <c r="G32">
         <v>171700</v>
@@ -8957,7 +8957,7 @@
         <v>77.23000335693359</v>
       </c>
       <c r="F33">
-        <v>75.69538116455078</v>
+        <v>74.99738311767578</v>
       </c>
       <c r="G33">
         <v>242900</v>
@@ -8980,7 +8980,7 @@
         <v>76.72000122070312</v>
       </c>
       <c r="F34">
-        <v>75.19551086425781</v>
+        <v>74.50212860107422</v>
       </c>
       <c r="G34">
         <v>387600</v>
@@ -9003,7 +9003,7 @@
         <v>76.56999969482422</v>
       </c>
       <c r="F35">
-        <v>75.04848480224609</v>
+        <v>74.35646057128906</v>
       </c>
       <c r="G35">
         <v>122200</v>
@@ -9026,7 +9026,7 @@
         <v>75.84999847412109</v>
       </c>
       <c r="F36">
-        <v>74.34279632568359</v>
+        <v>73.65727996826172</v>
       </c>
       <c r="G36">
         <v>212800</v>
@@ -9049,7 +9049,7 @@
         <v>76.47000122070312</v>
       </c>
       <c r="F37">
-        <v>74.95047760009766</v>
+        <v>74.25935363769531</v>
       </c>
       <c r="G37">
         <v>159200</v>
@@ -9072,7 +9072,7 @@
         <v>78.33000183105469</v>
       </c>
       <c r="F38">
-        <v>76.77352142333984</v>
+        <v>76.06558227539062</v>
       </c>
       <c r="G38">
         <v>338800</v>
@@ -9095,7 +9095,7 @@
         <v>77.91000366210938</v>
       </c>
       <c r="F39">
-        <v>76.36186218261719</v>
+        <v>75.65773010253906</v>
       </c>
       <c r="G39">
         <v>126300</v>
@@ -9118,7 +9118,7 @@
         <v>77.01000213623047</v>
       </c>
       <c r="F40">
-        <v>75.47975158691406</v>
+        <v>74.78374481201172</v>
       </c>
       <c r="G40">
         <v>122200</v>
@@ -9141,7 +9141,7 @@
         <v>77.77999877929688</v>
       </c>
       <c r="F41">
-        <v>76.23444366455078</v>
+        <v>75.53147888183594</v>
       </c>
       <c r="G41">
         <v>241600</v>
@@ -9164,7 +9164,7 @@
         <v>78.47000122070312</v>
       </c>
       <c r="F42">
-        <v>76.91073608398438</v>
+        <v>76.2015380859375</v>
       </c>
       <c r="G42">
         <v>552100</v>
@@ -9187,7 +9187,7 @@
         <v>79.27999877929688</v>
       </c>
       <c r="F43">
-        <v>77.70464324951172</v>
+        <v>76.98812103271484</v>
       </c>
       <c r="G43">
         <v>191400</v>
@@ -9210,7 +9210,7 @@
         <v>78.81999969482422</v>
       </c>
       <c r="F44">
-        <v>77.25377655029297</v>
+        <v>76.54141998291016</v>
       </c>
       <c r="G44">
         <v>216300</v>
@@ -9233,7 +9233,7 @@
         <v>80.45999908447266</v>
       </c>
       <c r="F45">
-        <v>78.86119079589844</v>
+        <v>78.13400268554688</v>
       </c>
       <c r="G45">
         <v>300200</v>
@@ -9256,7 +9256,7 @@
         <v>81.11000061035156</v>
       </c>
       <c r="F46">
-        <v>79.49827575683594</v>
+        <v>78.76522064208984</v>
       </c>
       <c r="G46">
         <v>206100</v>
@@ -9279,7 +9279,7 @@
         <v>80.80000305175781</v>
       </c>
       <c r="F47">
-        <v>79.19444274902344</v>
+        <v>78.46418762207031</v>
       </c>
       <c r="G47">
         <v>231500</v>
@@ -9302,7 +9302,7 @@
         <v>80.58999633789062</v>
       </c>
       <c r="F48">
-        <v>78.98860168457031</v>
+        <v>78.26024627685547</v>
       </c>
       <c r="G48">
         <v>264800</v>
@@ -9325,7 +9325,7 @@
         <v>80.44999694824219</v>
       </c>
       <c r="F49">
-        <v>78.85138702392578</v>
+        <v>78.12429046630859</v>
       </c>
       <c r="G49">
         <v>172600</v>
@@ -9348,7 +9348,7 @@
         <v>79.48999786376953</v>
       </c>
       <c r="F50">
-        <v>77.91046142578125</v>
+        <v>77.19204711914062</v>
       </c>
       <c r="G50">
         <v>292100</v>
@@ -9371,7 +9371,7 @@
         <v>78.86000061035156</v>
       </c>
       <c r="F51">
-        <v>77.29298400878906</v>
+        <v>76.58026123046875</v>
       </c>
       <c r="G51">
         <v>148700</v>
@@ -9394,7 +9394,7 @@
         <v>76.98999786376953</v>
       </c>
       <c r="F52">
-        <v>75.46014404296875</v>
+        <v>74.76432037353516</v>
       </c>
       <c r="G52">
         <v>247600</v>
@@ -9417,7 +9417,7 @@
         <v>77.23999786376953</v>
       </c>
       <c r="F53">
-        <v>75.70517730712891</v>
+        <v>75.00709533691406</v>
       </c>
       <c r="G53">
         <v>286400</v>
@@ -9440,7 +9440,7 @@
         <v>76.76000213623047</v>
       </c>
       <c r="F54">
-        <v>75.23471832275391</v>
+        <v>74.54096984863281</v>
       </c>
       <c r="G54">
         <v>160300</v>
@@ -9463,7 +9463,7 @@
         <v>76.91999816894531</v>
       </c>
       <c r="F55">
-        <v>75.39153289794922</v>
+        <v>74.69634246826172</v>
       </c>
       <c r="G55">
         <v>145900</v>
@@ -9486,7 +9486,7 @@
         <v>76.72000122070312</v>
       </c>
       <c r="F56">
-        <v>75.19551086425781</v>
+        <v>74.50212860107422</v>
       </c>
       <c r="G56">
         <v>309900</v>
@@ -9509,7 +9509,7 @@
         <v>76.94999694824219</v>
       </c>
       <c r="F57">
-        <v>75.42092895507812</v>
+        <v>74.72547149658203</v>
       </c>
       <c r="G57">
         <v>278600</v>
@@ -9532,7 +9532,7 @@
         <v>78.19000244140625</v>
       </c>
       <c r="F58">
-        <v>76.63630676269531</v>
+        <v>75.92963409423828</v>
       </c>
       <c r="G58">
         <v>168300</v>
@@ -9555,7 +9555,7 @@
         <v>77.51000213623047</v>
       </c>
       <c r="F59">
-        <v>75.96981811523438</v>
+        <v>75.269287109375</v>
       </c>
       <c r="G59">
         <v>223100</v>
@@ -9578,7 +9578,7 @@
         <v>78.01999664306641</v>
       </c>
       <c r="F60">
-        <v>76.46967315673828</v>
+        <v>75.76454162597656</v>
       </c>
       <c r="G60">
         <v>200200</v>
@@ -9601,7 +9601,7 @@
         <v>79.08999633789062</v>
       </c>
       <c r="F61">
-        <v>77.51840972900391</v>
+        <v>76.80360412597656</v>
       </c>
       <c r="G61">
         <v>219900</v>
@@ -9624,7 +9624,7 @@
         <v>79.25</v>
       </c>
       <c r="F62">
-        <v>77.67523193359375</v>
+        <v>76.95899200439453</v>
       </c>
       <c r="G62">
         <v>109200</v>
@@ -9647,7 +9647,7 @@
         <v>75.98000335693359</v>
       </c>
       <c r="F63">
-        <v>75.20087432861328</v>
+        <v>74.50743865966797</v>
       </c>
       <c r="G63">
         <v>383600</v>
@@ -9670,7 +9670,7 @@
         <v>75.37999725341797</v>
       </c>
       <c r="F64">
-        <v>74.60702514648438</v>
+        <v>73.9190673828125</v>
       </c>
       <c r="G64">
         <v>503800</v>
@@ -9693,7 +9693,7 @@
         <v>75.23999786376953</v>
       </c>
       <c r="F65">
-        <v>74.46846008300781</v>
+        <v>73.78178405761719</v>
       </c>
       <c r="G65">
         <v>326100</v>
@@ -9716,7 +9716,7 @@
         <v>76.05999755859375</v>
       </c>
       <c r="F66">
-        <v>75.28005218505859</v>
+        <v>74.58589172363281</v>
       </c>
       <c r="G66">
         <v>227100</v>
@@ -9739,7 +9739,7 @@
         <v>74.44000244140625</v>
       </c>
       <c r="F67">
-        <v>73.67666625976562</v>
+        <v>72.99729156494141</v>
       </c>
       <c r="G67">
         <v>396800</v>
@@ -9762,7 +9762,7 @@
         <v>74.51000213623047</v>
       </c>
       <c r="F68">
-        <v>73.74594879150391</v>
+        <v>73.06593322753906</v>
       </c>
       <c r="G68">
         <v>121700</v>
@@ -9785,7 +9785,7 @@
         <v>75.51000213623047</v>
       </c>
       <c r="F69">
-        <v>74.73569488525391</v>
+        <v>74.04655456542969</v>
       </c>
       <c r="G69">
         <v>136800</v>
@@ -9808,7 +9808,7 @@
         <v>73.30999755859375</v>
       </c>
       <c r="F70">
-        <v>72.55825042724609</v>
+        <v>71.88918304443359</v>
       </c>
       <c r="G70">
         <v>658000</v>
@@ -9831,7 +9831,7 @@
         <v>72.66999816894531</v>
       </c>
       <c r="F71">
-        <v>71.92481231689453</v>
+        <v>71.26158905029297</v>
       </c>
       <c r="G71">
         <v>1023400</v>
@@ -9854,7 +9854,7 @@
         <v>73.25</v>
       </c>
       <c r="F72">
-        <v>72.49886322021484</v>
+        <v>71.83034515380859</v>
       </c>
       <c r="G72">
         <v>642200</v>
@@ -9877,7 +9877,7 @@
         <v>71.40000152587891</v>
       </c>
       <c r="F73">
-        <v>70.66783905029297</v>
+        <v>70.01620483398438</v>
       </c>
       <c r="G73">
         <v>647700</v>
@@ -9900,7 +9900,7 @@
         <v>70.65000152587891</v>
       </c>
       <c r="F74">
-        <v>69.92552947998047</v>
+        <v>69.28073883056641</v>
       </c>
       <c r="G74">
         <v>314900</v>
@@ -9923,7 +9923,7 @@
         <v>71.76999664306641</v>
       </c>
       <c r="F75">
-        <v>71.03404235839844</v>
+        <v>70.3790283203125</v>
       </c>
       <c r="G75">
         <v>210400</v>
@@ -9946,7 +9946,7 @@
         <v>71.38999938964844</v>
       </c>
       <c r="F76">
-        <v>70.65793609619141</v>
+        <v>70.00639343261719</v>
       </c>
       <c r="G76">
         <v>128900</v>
@@ -9969,7 +9969,7 @@
         <v>71.66000366210938</v>
       </c>
       <c r="F77">
-        <v>70.9251708984375</v>
+        <v>70.27116394042969</v>
       </c>
       <c r="G77">
         <v>113800</v>
@@ -9992,7 +9992,7 @@
         <v>71.5</v>
       </c>
       <c r="F78">
-        <v>70.76681518554688</v>
+        <v>70.11426544189453</v>
       </c>
       <c r="G78">
         <v>147500</v>
@@ -10015,7 +10015,7 @@
         <v>71.48000335693359</v>
       </c>
       <c r="F79">
-        <v>70.74701690673828</v>
+        <v>70.09465026855469</v>
       </c>
       <c r="G79">
         <v>204800</v>
@@ -10038,7 +10038,7 @@
         <v>70.51000213623047</v>
       </c>
       <c r="F80">
-        <v>69.78696441650391</v>
+        <v>69.14345550537109</v>
       </c>
       <c r="G80">
         <v>182900</v>
@@ -10061,7 +10061,7 @@
         <v>69.83999633789062</v>
       </c>
       <c r="F81">
-        <v>69.12383270263672</v>
+        <v>68.48643493652344</v>
       </c>
       <c r="G81">
         <v>233100</v>
@@ -10084,7 +10084,7 @@
         <v>70.36000061035156</v>
       </c>
       <c r="F82">
-        <v>69.63850402832031</v>
+        <v>68.99636077880859</v>
       </c>
       <c r="G82">
         <v>231000</v>
@@ -10107,7 +10107,7 @@
         <v>71.12000274658203</v>
       </c>
       <c r="F83">
-        <v>70.39070892333984</v>
+        <v>69.74163055419922</v>
       </c>
       <c r="G83">
         <v>163800</v>
@@ -10130,7 +10130,7 @@
         <v>70.38999938964844</v>
       </c>
       <c r="F84">
-        <v>69.66819000244141</v>
+        <v>69.02577209472656</v>
       </c>
       <c r="G84">
         <v>263700</v>
@@ -10153,7 +10153,7 @@
         <v>71.27999877929688</v>
       </c>
       <c r="F85">
-        <v>70.54906463623047</v>
+        <v>69.89852905273438</v>
       </c>
       <c r="G85">
         <v>160800</v>
@@ -10176,7 +10176,7 @@
         <v>71.29000091552734</v>
       </c>
       <c r="F86">
-        <v>70.55896759033203</v>
+        <v>69.90834045410156</v>
       </c>
       <c r="G86">
         <v>167200</v>
@@ -10199,7 +10199,7 @@
         <v>72.38999938964844</v>
       </c>
       <c r="F87">
-        <v>71.64768218994141</v>
+        <v>70.98701477050781</v>
       </c>
       <c r="G87">
         <v>225500</v>
@@ -10222,7 +10222,7 @@
         <v>72.93000030517578</v>
       </c>
       <c r="F88">
-        <v>72.18215179443359</v>
+        <v>71.51655578613281</v>
       </c>
       <c r="G88">
         <v>199700</v>
@@ -10245,7 +10245,7 @@
         <v>73.69999694824219</v>
       </c>
       <c r="F89">
-        <v>72.94425201416016</v>
+        <v>72.27162933349609</v>
       </c>
       <c r="G89">
         <v>386400</v>
@@ -10268,7 +10268,7 @@
         <v>73.08000183105469</v>
       </c>
       <c r="F90">
-        <v>72.33061218261719</v>
+        <v>71.66364288330078</v>
       </c>
       <c r="G90">
         <v>309200</v>
@@ -10291,7 +10291,7 @@
         <v>73.47000122070312</v>
       </c>
       <c r="F91">
-        <v>72.71661376953125</v>
+        <v>72.04608917236328</v>
       </c>
       <c r="G91">
         <v>137700</v>
@@ -10314,7 +10314,7 @@
         <v>73</v>
       </c>
       <c r="F92">
-        <v>72.25142669677734</v>
+        <v>71.58518981933594</v>
       </c>
       <c r="G92">
         <v>170700</v>
@@ -10337,7 +10337,7 @@
         <v>73.23000335693359</v>
       </c>
       <c r="F93">
-        <v>72.47907257080078</v>
+        <v>71.81073760986328</v>
       </c>
       <c r="G93">
         <v>182700</v>
@@ -10360,7 +10360,7 @@
         <v>73.62999725341797</v>
       </c>
       <c r="F94">
-        <v>72.87496948242188</v>
+        <v>72.20298004150391</v>
       </c>
       <c r="G94">
         <v>115000</v>
@@ -10383,7 +10383,7 @@
         <v>75.37000274658203</v>
       </c>
       <c r="F95">
-        <v>74.59712982177734</v>
+        <v>73.90926361083984</v>
       </c>
       <c r="G95">
         <v>414700</v>
@@ -10406,7 +10406,7 @@
         <v>75.23000335693359</v>
       </c>
       <c r="F96">
-        <v>74.45856475830078</v>
+        <v>73.77198028564453</v>
       </c>
       <c r="G96">
         <v>173900</v>
@@ -10429,7 +10429,7 @@
         <v>74.44999694824219</v>
       </c>
       <c r="F97">
-        <v>73.68656158447266</v>
+        <v>73.00709533691406</v>
       </c>
       <c r="G97">
         <v>239800</v>
@@ -10452,7 +10452,7 @@
         <v>74.05999755859375</v>
       </c>
       <c r="F98">
-        <v>73.30055999755859</v>
+        <v>72.62464904785156</v>
       </c>
       <c r="G98">
         <v>92300</v>
@@ -10475,7 +10475,7 @@
         <v>74.68000030517578</v>
       </c>
       <c r="F99">
-        <v>73.91419982910156</v>
+        <v>73.23262786865234</v>
       </c>
       <c r="G99">
         <v>206400</v>
@@ -10498,7 +10498,7 @@
         <v>74.93000030517578</v>
       </c>
       <c r="F100">
-        <v>74.16163635253906</v>
+        <v>73.477783203125</v>
       </c>
       <c r="G100">
         <v>172500</v>
@@ -10521,7 +10521,7 @@
         <v>74.18000030517578</v>
       </c>
       <c r="F101">
-        <v>73.41932678222656</v>
+        <v>72.74232482910156</v>
       </c>
       <c r="G101">
         <v>767800</v>
@@ -10544,7 +10544,7 @@
         <v>74.51999664306641</v>
       </c>
       <c r="F102">
-        <v>73.75583648681641</v>
+        <v>73.07572937011719</v>
       </c>
       <c r="G102">
         <v>184000</v>
@@ -10567,7 +10567,7 @@
         <v>72.69000244140625</v>
       </c>
       <c r="F103">
-        <v>71.94461059570312</v>
+        <v>71.28120422363281</v>
       </c>
       <c r="G103">
         <v>673800</v>
@@ -10590,7 +10590,7 @@
         <v>71.31999969482422</v>
       </c>
       <c r="F104">
-        <v>70.58865356445312</v>
+        <v>69.93775177001953</v>
       </c>
       <c r="G104">
         <v>947100</v>
@@ -10613,7 +10613,7 @@
         <v>72.34999847412109</v>
       </c>
       <c r="F105">
-        <v>71.60809326171875</v>
+        <v>70.94779205322266</v>
       </c>
       <c r="G105">
         <v>321900</v>
@@ -10636,7 +10636,7 @@
         <v>73.25</v>
       </c>
       <c r="F106">
-        <v>72.49886322021484</v>
+        <v>71.83034515380859</v>
       </c>
       <c r="G106">
         <v>425700</v>
@@ -10659,7 +10659,7 @@
         <v>74.77999877929688</v>
       </c>
       <c r="F107">
-        <v>74.01317596435547</v>
+        <v>73.33069610595703</v>
       </c>
       <c r="G107">
         <v>989700</v>
@@ -10682,7 +10682,7 @@
         <v>76.19999694824219</v>
       </c>
       <c r="F108">
-        <v>75.41860961914062</v>
+        <v>74.72316741943359</v>
       </c>
       <c r="G108">
         <v>642400</v>
@@ -10705,7 +10705,7 @@
         <v>77.01000213623047</v>
       </c>
       <c r="F109">
-        <v>76.22031402587891</v>
+        <v>75.51747894287109</v>
       </c>
       <c r="G109">
         <v>251500</v>
@@ -10728,7 +10728,7 @@
         <v>77.16000366210938</v>
       </c>
       <c r="F110">
-        <v>76.3687744140625</v>
+        <v>75.66457366943359</v>
       </c>
       <c r="G110">
         <v>145200</v>
@@ -10751,7 +10751,7 @@
         <v>74.76999664306641</v>
       </c>
       <c r="F111">
-        <v>74.00327301025391</v>
+        <v>73.32088470458984</v>
       </c>
       <c r="G111">
         <v>309600</v>
@@ -10774,7 +10774,7 @@
         <v>74.27999877929688</v>
       </c>
       <c r="F112">
-        <v>73.51830291748047</v>
+        <v>72.84038543701172</v>
       </c>
       <c r="G112">
         <v>316900</v>
@@ -10797,7 +10797,7 @@
         <v>75.25</v>
       </c>
       <c r="F113">
-        <v>74.47835540771484</v>
+        <v>73.79158782958984</v>
       </c>
       <c r="G113">
         <v>311700</v>
@@ -10820,7 +10820,7 @@
         <v>76.12999725341797</v>
       </c>
       <c r="F114">
-        <v>75.34933471679688</v>
+        <v>74.65453338623047</v>
       </c>
       <c r="G114">
         <v>969800</v>
@@ -10843,7 +10843,7 @@
         <v>77.95999908447266</v>
       </c>
       <c r="F115">
-        <v>77.16056823730469</v>
+        <v>76.44906616210938</v>
       </c>
       <c r="G115">
         <v>892100</v>
@@ -10866,7 +10866,7 @@
         <v>79.33999633789062</v>
       </c>
       <c r="F116">
-        <v>78.52641296386719</v>
+        <v>77.80231475830078</v>
       </c>
       <c r="G116">
         <v>473300</v>
@@ -10889,7 +10889,7 @@
         <v>77.94999694824219</v>
       </c>
       <c r="F117">
-        <v>77.15066528320312</v>
+        <v>76.43925476074219</v>
       </c>
       <c r="G117">
         <v>401400</v>
@@ -10912,7 +10912,7 @@
         <v>79.04000091552734</v>
       </c>
       <c r="F118">
-        <v>78.2294921875</v>
+        <v>77.50813293457031</v>
       </c>
       <c r="G118">
         <v>455600</v>
@@ -10935,7 +10935,7 @@
         <v>78.09999847412109</v>
       </c>
       <c r="F119">
-        <v>77.29913330078125</v>
+        <v>76.58634948730469</v>
       </c>
       <c r="G119">
         <v>570900</v>
@@ -10958,7 +10958,7 @@
         <v>78.16000366210938</v>
       </c>
       <c r="F120">
-        <v>77.3585205078125</v>
+        <v>76.64519500732422</v>
       </c>
       <c r="G120">
         <v>191700</v>
@@ -10981,7 +10981,7 @@
         <v>78.59999847412109</v>
       </c>
       <c r="F121">
-        <v>77.79400634765625</v>
+        <v>77.07666015625</v>
       </c>
       <c r="G121">
         <v>375800</v>
@@ -11004,7 +11004,7 @@
         <v>78.59999847412109</v>
       </c>
       <c r="F122">
-        <v>77.79400634765625</v>
+        <v>77.07666015625</v>
       </c>
       <c r="G122">
         <v>140200</v>
@@ -11027,7 +11027,7 @@
         <v>77.08000183105469</v>
       </c>
       <c r="F123">
-        <v>76.28959655761719</v>
+        <v>75.58612060546875</v>
       </c>
       <c r="G123">
         <v>421900</v>
@@ -11050,7 +11050,7 @@
         <v>77.5</v>
       </c>
       <c r="F124">
-        <v>76.70528411865234</v>
+        <v>75.99797821044922</v>
       </c>
       <c r="G124">
         <v>502800</v>
@@ -11073,7 +11073,7 @@
         <v>75.08999633789062</v>
       </c>
       <c r="F125">
-        <v>74.31999206542969</v>
+        <v>73.63468170166016</v>
       </c>
       <c r="G125">
         <v>676000</v>
@@ -11096,7 +11096,7 @@
         <v>72.41000366210938</v>
       </c>
       <c r="F126">
-        <v>72.41000366210938</v>
+        <v>71.74230194091797</v>
       </c>
       <c r="G126">
         <v>465700</v>
@@ -11119,7 +11119,7 @@
         <v>73.26000213623047</v>
       </c>
       <c r="F127">
-        <v>73.26000213623047</v>
+        <v>72.58446502685547</v>
       </c>
       <c r="G127">
         <v>410600</v>
@@ -11142,7 +11142,7 @@
         <v>74.66000366210938</v>
       </c>
       <c r="F128">
-        <v>74.66000366210938</v>
+        <v>73.9715576171875</v>
       </c>
       <c r="G128">
         <v>427200</v>
@@ -11165,7 +11165,7 @@
         <v>75.41000366210938</v>
       </c>
       <c r="F129">
-        <v>75.41000366210938</v>
+        <v>74.71464538574219</v>
       </c>
       <c r="G129">
         <v>241700</v>
@@ -11188,7 +11188,7 @@
         <v>75.73000335693359</v>
       </c>
       <c r="F130">
-        <v>75.73000335693359</v>
+        <v>75.03169250488281</v>
       </c>
       <c r="G130">
         <v>462400</v>
@@ -11211,7 +11211,7 @@
         <v>75.25</v>
       </c>
       <c r="F131">
-        <v>75.25</v>
+        <v>74.55611419677734</v>
       </c>
       <c r="G131">
         <v>123500</v>
@@ -11234,7 +11234,7 @@
         <v>75.61000061035156</v>
       </c>
       <c r="F132">
-        <v>75.61000061035156</v>
+        <v>74.91279602050781</v>
       </c>
       <c r="G132">
         <v>107100</v>
@@ -11257,7 +11257,7 @@
         <v>76.68000030517578</v>
       </c>
       <c r="F133">
-        <v>76.68000030517578</v>
+        <v>75.97293090820312</v>
       </c>
       <c r="G133">
         <v>673800</v>
@@ -11280,7 +11280,7 @@
         <v>77.19000244140625</v>
       </c>
       <c r="F134">
-        <v>77.19000244140625</v>
+        <v>76.47822570800781</v>
       </c>
       <c r="G134">
         <v>278100</v>
@@ -11303,7 +11303,7 @@
         <v>75.70999908447266</v>
       </c>
       <c r="F135">
-        <v>75.70999908447266</v>
+        <v>75.01187133789062</v>
       </c>
       <c r="G135">
         <v>257600</v>
@@ -11326,7 +11326,7 @@
         <v>77.41000366210938</v>
       </c>
       <c r="F136">
-        <v>77.41000366210938</v>
+        <v>76.69619750976562</v>
       </c>
       <c r="G136">
         <v>636900</v>
@@ -11349,7 +11349,7 @@
         <v>77.48999786376953</v>
       </c>
       <c r="F137">
-        <v>77.48999786376953</v>
+        <v>76.77545928955078</v>
       </c>
       <c r="G137">
         <v>145000</v>
@@ -11372,7 +11372,7 @@
         <v>76.58000183105469</v>
       </c>
       <c r="F138">
-        <v>76.58000183105469</v>
+        <v>75.87384796142578</v>
       </c>
       <c r="G138">
         <v>142700</v>
@@ -11395,7 +11395,7 @@
         <v>75.69999694824219</v>
       </c>
       <c r="F139">
-        <v>75.69999694824219</v>
+        <v>75.00196075439453</v>
       </c>
       <c r="G139">
         <v>141100</v>
@@ -11418,7 +11418,7 @@
         <v>75.41000366210938</v>
       </c>
       <c r="F140">
-        <v>75.41000366210938</v>
+        <v>74.71464538574219</v>
       </c>
       <c r="G140">
         <v>251900</v>
@@ -11441,7 +11441,7 @@
         <v>75.15000152587891</v>
       </c>
       <c r="F141">
-        <v>75.15000152587891</v>
+        <v>74.45703887939453</v>
       </c>
       <c r="G141">
         <v>144000</v>
@@ -11464,7 +11464,7 @@
         <v>73.72000122070312</v>
       </c>
       <c r="F142">
-        <v>73.72000122070312</v>
+        <v>73.04022216796875</v>
       </c>
       <c r="G142">
         <v>377300</v>
@@ -11487,7 +11487,7 @@
         <v>74.63999938964844</v>
       </c>
       <c r="F143">
-        <v>74.63999938964844</v>
+        <v>73.95173645019531</v>
       </c>
       <c r="G143">
         <v>614400</v>
@@ -11510,7 +11510,7 @@
         <v>75.51999664306641</v>
       </c>
       <c r="F144">
-        <v>75.51999664306641</v>
+        <v>74.82362365722656</v>
       </c>
       <c r="G144">
         <v>297800</v>
@@ -11533,7 +11533,7 @@
         <v>76.18000030517578</v>
       </c>
       <c r="F145">
-        <v>76.18000030517578</v>
+        <v>75.4775390625</v>
       </c>
       <c r="G145">
         <v>369600</v>
@@ -11556,7 +11556,7 @@
         <v>76.65000152587891</v>
       </c>
       <c r="F146">
-        <v>76.65000152587891</v>
+        <v>75.94320678710938</v>
       </c>
       <c r="G146">
         <v>217800</v>
@@ -11579,7 +11579,7 @@
         <v>77.76999664306641</v>
       </c>
       <c r="F147">
-        <v>77.76999664306641</v>
+        <v>77.05287170410156</v>
       </c>
       <c r="G147">
         <v>437200</v>
@@ -11602,7 +11602,7 @@
         <v>78.81999969482422</v>
       </c>
       <c r="F148">
-        <v>78.81999969482422</v>
+        <v>78.09319305419922</v>
       </c>
       <c r="G148">
         <v>873900</v>
@@ -11625,7 +11625,7 @@
         <v>82.44999694824219</v>
       </c>
       <c r="F149">
-        <v>82.44999694824219</v>
+        <v>81.68972015380859</v>
       </c>
       <c r="G149">
         <v>1434600</v>
@@ -11648,7 +11648,7 @@
         <v>83.47000122070312</v>
       </c>
       <c r="F150">
-        <v>83.47000122070312</v>
+        <v>82.7003173828125</v>
       </c>
       <c r="G150">
         <v>1023100</v>
@@ -11671,7 +11671,7 @@
         <v>80.69999694824219</v>
       </c>
       <c r="F151">
-        <v>80.69999694824219</v>
+        <v>79.95585632324219</v>
       </c>
       <c r="G151">
         <v>743200</v>
@@ -11694,7 +11694,7 @@
         <v>79.41000366210938</v>
       </c>
       <c r="F152">
-        <v>79.41000366210938</v>
+        <v>78.67775726318359</v>
       </c>
       <c r="G152">
         <v>517300</v>
@@ -11717,7 +11717,7 @@
         <v>78.98999786376953</v>
       </c>
       <c r="F153">
-        <v>78.98999786376953</v>
+        <v>78.26162719726562</v>
       </c>
       <c r="G153">
         <v>686000</v>
@@ -11740,7 +11740,7 @@
         <v>80.16000366210938</v>
       </c>
       <c r="F154">
-        <v>80.16000366210938</v>
+        <v>79.42084503173828</v>
       </c>
       <c r="G154">
         <v>586600</v>
@@ -11763,7 +11763,7 @@
         <v>80.68000030517578</v>
       </c>
       <c r="F155">
-        <v>80.68000030517578</v>
+        <v>79.93604278564453</v>
       </c>
       <c r="G155">
         <v>191200</v>
@@ -11786,7 +11786,7 @@
         <v>81.36000061035156</v>
       </c>
       <c r="F156">
-        <v>81.36000061035156</v>
+        <v>80.60977172851562</v>
       </c>
       <c r="G156">
         <v>501200</v>
@@ -11809,7 +11809,7 @@
         <v>82.26000213623047</v>
       </c>
       <c r="F157">
-        <v>82.26000213623047</v>
+        <v>81.50148010253906</v>
       </c>
       <c r="G157">
         <v>534700</v>
@@ -11832,7 +11832,7 @@
         <v>81.34999847412109</v>
       </c>
       <c r="F158">
-        <v>81.34999847412109</v>
+        <v>80.59986114501953</v>
       </c>
       <c r="G158">
         <v>606100</v>
@@ -11855,7 +11855,7 @@
         <v>81.95999908447266</v>
       </c>
       <c r="F159">
-        <v>81.95999908447266</v>
+        <v>81.20423889160156</v>
       </c>
       <c r="G159">
         <v>504500</v>
@@ -11878,7 +11878,7 @@
         <v>82.51999664306641</v>
       </c>
       <c r="F160">
-        <v>82.51999664306641</v>
+        <v>81.75907135009766</v>
       </c>
       <c r="G160">
         <v>279800</v>
@@ -11901,7 +11901,7 @@
         <v>83.59999847412109</v>
       </c>
       <c r="F161">
-        <v>83.59999847412109</v>
+        <v>82.82911682128906</v>
       </c>
       <c r="G161">
         <v>435900</v>
@@ -11924,7 +11924,7 @@
         <v>83.58999633789062</v>
       </c>
       <c r="F162">
-        <v>83.58999633789062</v>
+        <v>82.81920623779297</v>
       </c>
       <c r="G162">
         <v>283200</v>
@@ -11947,7 +11947,7 @@
         <v>82.11000061035156</v>
       </c>
       <c r="F163">
-        <v>82.11000061035156</v>
+        <v>81.35285949707031</v>
       </c>
       <c r="G163">
         <v>678100</v>
@@ -11970,7 +11970,7 @@
         <v>82.90000152587891</v>
       </c>
       <c r="F164">
-        <v>82.90000152587891</v>
+        <v>82.13557434082031</v>
       </c>
       <c r="G164">
         <v>245000</v>
@@ -11993,7 +11993,7 @@
         <v>82.59999847412109</v>
       </c>
       <c r="F165">
-        <v>82.59999847412109</v>
+        <v>81.83834075927734</v>
       </c>
       <c r="G165">
         <v>259900</v>
@@ -12016,7 +12016,7 @@
         <v>82.09999847412109</v>
       </c>
       <c r="F166">
-        <v>82.09999847412109</v>
+        <v>81.34294891357422</v>
       </c>
       <c r="G166">
         <v>270600</v>
@@ -12039,7 +12039,7 @@
         <v>82.23000335693359</v>
       </c>
       <c r="F167">
-        <v>82.23000335693359</v>
+        <v>81.47175598144531</v>
       </c>
       <c r="G167">
         <v>144600</v>
@@ -12062,7 +12062,7 @@
         <v>81.84999847412109</v>
       </c>
       <c r="F168">
-        <v>81.84999847412109</v>
+        <v>81.09525299072266</v>
       </c>
       <c r="G168">
         <v>190600</v>
@@ -12085,7 +12085,7 @@
         <v>80.63999938964844</v>
       </c>
       <c r="F169">
-        <v>80.63999938964844</v>
+        <v>79.89640808105469</v>
       </c>
       <c r="G169">
         <v>263400</v>
